--- a/src/Golf.xlsx
+++ b/src/Golf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgilson1/Documents/Github/Source/PersonalSite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F5256C-8FBE-A64D-9E07-DA1DDE39120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAEBEE6-3784-4247-8B9E-93773F337096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5A2DB70E-0041-3946-A9D9-B12F382827A1}"/>
   </bookViews>
@@ -1435,8 +1435,8 @@
   <dimension ref="A1:FY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G29" sqref="G29"/>
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV26" sqref="BV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/Golf.xlsx
+++ b/src/Golf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgilson1/Documents/Github/Source/PersonalSite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAEBEE6-3784-4247-8B9E-93773F337096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002626B2-B53C-1F4B-9D9E-E585DEEE624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5A2DB70E-0041-3946-A9D9-B12F382827A1}"/>
   </bookViews>
@@ -20,6 +20,8 @@
     <sheet name="Coffin" sheetId="5" r:id="rId5"/>
     <sheet name="Ackerman Allen" sheetId="7" r:id="rId6"/>
     <sheet name="Plum Creek" sheetId="6" r:id="rId7"/>
+    <sheet name="Buena Vista" sheetId="8" r:id="rId8"/>
+    <sheet name="Rockledge" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3833" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="308">
   <si>
     <t>Hole 1</t>
   </si>
@@ -778,14 +780,6 @@
     <t>7, 4</t>
   </si>
   <si>
-    <t>5/2/22
-Mike
-Mike
-Jeremy
-League
-30</t>
-  </si>
-  <si>
     <t>5/5/22
 Sam
 James
@@ -835,14 +829,6 @@
 37</t>
   </si>
   <si>
-    <t>5/9/22
-Mike
-Rich
-Ron
-League
-35</t>
-  </si>
-  <si>
     <t>5/12/22
 Dave
 36</t>
@@ -878,9 +864,6 @@
   </si>
   <si>
     <t>Coffin</t>
-  </si>
-  <si>
-    <t>37, 3</t>
   </si>
   <si>
     <t>5/20/22
@@ -1018,11 +1001,137 @@
     <t>LB, S, CC</t>
   </si>
   <si>
+    <t>54, 9</t>
+  </si>
+  <si>
+    <t>208, 110</t>
+  </si>
+  <si>
+    <t>Additional Hole #7 Course</t>
+  </si>
+  <si>
+    <t>Additional Hole #9 Course</t>
+  </si>
+  <si>
+    <t>Additional Hole #8 Course</t>
+  </si>
+  <si>
+    <t>198, 25</t>
+  </si>
+  <si>
+    <t>6/7/22
+Blue/Gold
+51</t>
+  </si>
+  <si>
+    <t>193, 35</t>
+  </si>
+  <si>
+    <t>18in Eagle</t>
+  </si>
+  <si>
+    <t>5, 4</t>
+  </si>
+  <si>
+    <t>178, 5</t>
+  </si>
+  <si>
+    <t>6/13/22
+Mike
+Arthur
+League
+53</t>
+  </si>
+  <si>
     <t>6/6/22
 Mike
 Dave
 Paul
+League
 50</t>
+  </si>
+  <si>
+    <t>5/2/22
+Mike
+Mike
+Jeremy
+League
+30</t>
+  </si>
+  <si>
+    <t>5/9/22
+Mike
+Rich
+Ron
+League
+35</t>
+  </si>
+  <si>
+    <t>6/10/22
+Sam
+52</t>
+  </si>
+  <si>
+    <t>6/14/22
+Taylor
+Kerri
+54</t>
+  </si>
+  <si>
+    <t>205, 30</t>
+  </si>
+  <si>
+    <t>6/20/22
+Mike
+Rob
+League
+55</t>
+  </si>
+  <si>
+    <t>140, 5</t>
+  </si>
+  <si>
+    <t>168, 1</t>
+  </si>
+  <si>
+    <t>6/27/22
+56</t>
+  </si>
+  <si>
+    <t>183, 90</t>
+  </si>
+  <si>
+    <t>208, 1</t>
+  </si>
+  <si>
+    <t>39, 9</t>
+  </si>
+  <si>
+    <t>6/28/22
+Chevar
+57</t>
+  </si>
+  <si>
+    <t>210, 30</t>
+  </si>
+  <si>
+    <t>6/29/22
+Blain
+58</t>
+  </si>
+  <si>
+    <t>220, 52</t>
+  </si>
+  <si>
+    <t>191, 10</t>
+  </si>
+  <si>
+    <t>7/1/22
+Mike
+59</t>
+  </si>
+  <si>
+    <t>175, 10</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1118,6 +1227,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,11 +1543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11326BCB-1BA1-E64B-B233-60374BD9B3D2}">
-  <dimension ref="A1:FY40"/>
+  <dimension ref="A1:GZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV26" sqref="BV26"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BL27" sqref="BL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,9 +1562,12 @@
     <col min="155" max="155" width="25.83203125" customWidth="1"/>
     <col min="164" max="164" width="25.83203125" customWidth="1"/>
     <col min="173" max="173" width="25.83203125" customWidth="1"/>
+    <col min="182" max="182" width="25.83203125" customWidth="1"/>
+    <col min="191" max="191" width="25.83203125" customWidth="1"/>
+    <col min="200" max="200" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1992,8 +2108,89 @@
       <c r="FY1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FZ1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="GA1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="GB1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="GI1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="GJ1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="GK1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="GR1" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="GS1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="GT1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
@@ -2367,7 +2564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>82</v>
       </c>
@@ -2540,7 +2737,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -2734,7 +2931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -3093,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
@@ -3449,7 +3646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
@@ -3802,7 +3999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -4032,7 +4229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>148</v>
       </c>
@@ -4217,7 +4414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>154</v>
       </c>
@@ -4570,7 +4767,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -4761,7 +4958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -5117,7 +5314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>177</v>
       </c>
@@ -5461,7 +5658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>195</v>
       </c>
@@ -5718,7 +5915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>208</v>
       </c>
@@ -6059,9 +6256,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:208" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -6247,9 +6444,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BM17">
         <v>5</v>
@@ -6270,7 +6467,7 @@
         <v>3</v>
       </c>
       <c r="BS17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT17">
         <v>5</v>
@@ -6480,7 +6677,7 @@
         <v>113</v>
       </c>
       <c r="EO17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="EP17" t="s">
         <v>141</v>
@@ -6510,9 +6707,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="BM18">
         <v>6</v>
@@ -6557,7 +6754,7 @@
         <v>59</v>
       </c>
       <c r="CA18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CB18">
         <v>2</v>
@@ -6569,7 +6766,7 @@
         <v>5</v>
       </c>
       <c r="CE18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CF18" t="s">
         <v>113</v>
@@ -6692,9 +6889,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6844,7 +7041,7 @@
         <v>166</v>
       </c>
       <c r="BD19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BF19">
         <v>5</v>
@@ -6868,9 +7065,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -6909,7 +7106,7 @@
         <v>157</v>
       </c>
       <c r="N20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P20">
         <v>3</v>
@@ -7221,12 +7418,12 @@
         <v>107</v>
       </c>
       <c r="DV20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="BM21">
         <v>4</v>
@@ -7382,7 +7579,7 @@
         <v>93</v>
       </c>
       <c r="DO21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DP21" t="s">
         <v>59</v>
@@ -7484,9 +7681,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -7546,7 +7743,7 @@
         <v>122</v>
       </c>
       <c r="V22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="W22">
         <v>5</v>
@@ -7654,7 +7851,7 @@
         <v>13</v>
       </c>
       <c r="BJ22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BK22" t="s">
         <v>103</v>
@@ -7816,7 +8013,7 @@
         <v>117</v>
       </c>
       <c r="DP22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="DQ22">
         <v>5</v>
@@ -7840,9 +8037,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:154" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -8014,6 +8211,953 @@
       </c>
       <c r="BK23">
         <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM24">
+        <v>5</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ24">
+        <v>92</v>
+      </c>
+      <c r="BR24">
+        <v>3</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT24">
+        <v>5</v>
+      </c>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX24">
+        <v>126</v>
+      </c>
+      <c r="BY24">
+        <v>9</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA24">
+        <v>4</v>
+      </c>
+      <c r="CB24">
+        <v>2</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE24">
+        <v>205</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>276</v>
+      </c>
+      <c r="CH24">
+        <v>3</v>
+      </c>
+      <c r="CI24">
+        <v>1</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL24">
+        <v>142</v>
+      </c>
+      <c r="CM24">
+        <v>3</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO24">
+        <v>4</v>
+      </c>
+      <c r="CP24">
+        <v>2</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>18</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS24">
+        <v>126</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV24">
+        <v>3</v>
+      </c>
+      <c r="CW24">
+        <v>1</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>13</v>
+      </c>
+      <c r="CZ24">
+        <v>163</v>
+      </c>
+      <c r="DA24">
+        <v>24</v>
+      </c>
+      <c r="DC24">
+        <v>5</v>
+      </c>
+      <c r="DD24">
+        <v>2</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF24" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG24">
+        <v>191</v>
+      </c>
+      <c r="DH24" t="s">
+        <v>104</v>
+      </c>
+      <c r="DI24" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ24">
+        <v>5</v>
+      </c>
+      <c r="DK24">
+        <v>2</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>277</v>
+      </c>
+      <c r="DO24" t="s">
+        <v>238</v>
+      </c>
+      <c r="DQ24">
+        <v>5</v>
+      </c>
+      <c r="DR24">
+        <v>2</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>27</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU24">
+        <v>131</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>104</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>141</v>
+      </c>
+      <c r="DY24">
+        <v>10</v>
+      </c>
+      <c r="DZ24">
+        <v>4</v>
+      </c>
+      <c r="EA24">
+        <v>2</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>4</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>13</v>
+      </c>
+      <c r="ED24">
+        <v>52</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG24" t="s">
+        <v>141</v>
+      </c>
+      <c r="EH24">
+        <v>11</v>
+      </c>
+      <c r="EI24">
+        <v>5</v>
+      </c>
+      <c r="EJ24">
+        <v>3</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>18</v>
+      </c>
+      <c r="EL24" t="s">
+        <v>13</v>
+      </c>
+      <c r="EM24">
+        <v>163</v>
+      </c>
+      <c r="EN24" t="s">
+        <v>104</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>141</v>
+      </c>
+      <c r="EQ24">
+        <v>12</v>
+      </c>
+      <c r="ER24">
+        <v>6</v>
+      </c>
+      <c r="ES24">
+        <v>2</v>
+      </c>
+      <c r="ET24" t="s">
+        <v>18</v>
+      </c>
+      <c r="EU24" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV24">
+        <v>167</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>103</v>
+      </c>
+      <c r="EX24" t="s">
+        <v>58</v>
+      </c>
+      <c r="EY24" t="s">
+        <v>141</v>
+      </c>
+      <c r="EZ24">
+        <v>13</v>
+      </c>
+      <c r="FA24">
+        <v>2</v>
+      </c>
+      <c r="FB24">
+        <v>1</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>26</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>13</v>
+      </c>
+      <c r="FE24">
+        <v>122</v>
+      </c>
+      <c r="FF24">
+        <v>8</v>
+      </c>
+      <c r="FH24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="FI24" s="1">
+        <v>14</v>
+      </c>
+      <c r="FJ24">
+        <v>4</v>
+      </c>
+      <c r="FK24">
+        <v>2</v>
+      </c>
+      <c r="FL24" t="s">
+        <v>18</v>
+      </c>
+      <c r="FM24" t="s">
+        <v>13</v>
+      </c>
+      <c r="FN24">
+        <v>103</v>
+      </c>
+      <c r="FO24" t="s">
+        <v>103</v>
+      </c>
+      <c r="FQ24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="FR24">
+        <v>15</v>
+      </c>
+      <c r="FS24">
+        <v>5</v>
+      </c>
+      <c r="FT24">
+        <v>2</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>4</v>
+      </c>
+      <c r="FV24" t="s">
+        <v>5</v>
+      </c>
+      <c r="FW24">
+        <v>118</v>
+      </c>
+      <c r="FX24" t="s">
+        <v>93</v>
+      </c>
+      <c r="FZ24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GA24">
+        <v>16</v>
+      </c>
+      <c r="GB24">
+        <v>4</v>
+      </c>
+      <c r="GC24">
+        <v>2</v>
+      </c>
+      <c r="GD24" t="s">
+        <v>26</v>
+      </c>
+      <c r="GE24" t="s">
+        <v>5</v>
+      </c>
+      <c r="GF24">
+        <v>183</v>
+      </c>
+      <c r="GG24" t="s">
+        <v>103</v>
+      </c>
+      <c r="GI24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GJ24">
+        <v>17</v>
+      </c>
+      <c r="GK24">
+        <v>6</v>
+      </c>
+      <c r="GL24">
+        <v>1</v>
+      </c>
+      <c r="GM24" t="s">
+        <v>4</v>
+      </c>
+      <c r="GN24" t="s">
+        <v>5</v>
+      </c>
+      <c r="GO24" t="s">
+        <v>281</v>
+      </c>
+      <c r="GP24">
+        <v>3</v>
+      </c>
+      <c r="GQ24" t="s">
+        <v>63</v>
+      </c>
+      <c r="GR24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GS24">
+        <v>18</v>
+      </c>
+      <c r="GT24">
+        <v>4</v>
+      </c>
+      <c r="GU24">
+        <v>2</v>
+      </c>
+      <c r="GV24" t="s">
+        <v>18</v>
+      </c>
+      <c r="GW24" t="s">
+        <v>13</v>
+      </c>
+      <c r="GX24">
+        <v>102</v>
+      </c>
+      <c r="GY24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM25">
+        <v>5</v>
+      </c>
+      <c r="BN25">
+        <v>2</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ25">
+        <v>116</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT25">
+        <v>5</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX25">
+        <v>89</v>
+      </c>
+      <c r="BY25">
+        <v>3</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>68</v>
+      </c>
+      <c r="CA25">
+        <v>3</v>
+      </c>
+      <c r="CB25">
+        <v>1</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE25">
+        <v>141</v>
+      </c>
+      <c r="CF25">
+        <v>1</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH25">
+        <v>3</v>
+      </c>
+      <c r="CI25">
+        <v>1</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL25">
+        <v>133</v>
+      </c>
+      <c r="CM25">
+        <v>6</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO25">
+        <v>4</v>
+      </c>
+      <c r="CP25">
+        <v>1</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS25">
+        <v>135</v>
+      </c>
+      <c r="CT25">
+        <v>6</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>285</v>
+      </c>
+      <c r="CW25">
+        <v>2</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ25">
+        <v>112</v>
+      </c>
+      <c r="DA25" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB25" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC25">
+        <v>4</v>
+      </c>
+      <c r="DD25">
+        <v>2</v>
+      </c>
+      <c r="DE25" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF25" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG25">
+        <v>177</v>
+      </c>
+      <c r="DH25" t="s">
+        <v>126</v>
+      </c>
+      <c r="DI25" t="s">
+        <v>12</v>
+      </c>
+      <c r="DJ25">
+        <v>4</v>
+      </c>
+      <c r="DK25">
+        <v>1</v>
+      </c>
+      <c r="DL25" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM25" t="s">
+        <v>13</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>286</v>
+      </c>
+      <c r="DO25">
+        <v>6</v>
+      </c>
+      <c r="DQ25">
+        <v>4</v>
+      </c>
+      <c r="DR25">
+        <v>2</v>
+      </c>
+      <c r="DS25" t="s">
+        <v>18</v>
+      </c>
+      <c r="DT25" t="s">
+        <v>13</v>
+      </c>
+      <c r="DU25">
+        <v>57</v>
+      </c>
+      <c r="DV25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM26">
+        <v>4</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>18</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ26">
+        <v>154</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT26">
+        <v>5</v>
+      </c>
+      <c r="BU26">
+        <v>3</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX26">
+        <v>142</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CA26">
+        <v>6</v>
+      </c>
+      <c r="CB26">
+        <v>3</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>13</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CH26">
+        <v>3</v>
+      </c>
+      <c r="CI26">
+        <v>2</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>26</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL26">
+        <v>172</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO26">
+        <v>5</v>
+      </c>
+      <c r="CP26">
+        <v>2</v>
+      </c>
+      <c r="CQ26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS26">
+        <v>110</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>117</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>59</v>
+      </c>
+      <c r="CV26">
+        <v>6</v>
+      </c>
+      <c r="CW26">
+        <v>3</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ26">
+        <v>175</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>46</v>
+      </c>
+      <c r="DC26">
+        <v>3</v>
+      </c>
+      <c r="DD26">
+        <v>2</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF26" t="s">
+        <v>13</v>
+      </c>
+      <c r="DG26">
+        <v>204</v>
+      </c>
+      <c r="DH26" t="s">
+        <v>99</v>
+      </c>
+      <c r="DJ26">
+        <v>5</v>
+      </c>
+      <c r="DK26">
+        <v>1</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>18</v>
+      </c>
+      <c r="DM26" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN26" t="s">
+        <v>305</v>
+      </c>
+      <c r="DO26">
+        <v>3</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>69</v>
+      </c>
+      <c r="DQ26">
+        <v>4</v>
+      </c>
+      <c r="DR26">
+        <v>2</v>
+      </c>
+      <c r="DS26" t="s">
+        <v>4</v>
+      </c>
+      <c r="DT26" t="s">
+        <v>13</v>
+      </c>
+      <c r="DU26">
+        <v>151</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>250</v>
+      </c>
+      <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <v>108</v>
+      </c>
+      <c r="U27" t="s">
+        <v>103</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB27">
+        <v>27</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>134</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO27">
+        <v>135</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV27">
+        <v>66</v>
+      </c>
+      <c r="AW27">
+        <v>21</v>
+      </c>
+      <c r="AY27">
+        <v>5</v>
+      </c>
+      <c r="AZ27">
+        <v>2</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC27">
+        <v>175</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF27">
+        <v>6</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ27">
+        <v>69</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:123" x14ac:dyDescent="0.2">
@@ -8354,8 +9498,10 @@
   <dimension ref="A1:FY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DS23" sqref="DS23"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9146,8 +10292,8 @@
       <c r="CD2" t="s">
         <v>5</v>
       </c>
-      <c r="CE2" t="s">
-        <v>27</v>
+      <c r="CE2">
+        <v>300</v>
       </c>
       <c r="CF2">
         <v>3</v>
@@ -9691,7 +10837,7 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W4">
         <v>5</v>
@@ -13903,7 +15049,7 @@
     </row>
     <row r="17" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13987,7 +15133,7 @@
         <v>112</v>
       </c>
       <c r="AC17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD17">
         <v>6</v>
@@ -14325,7 +15471,7 @@
     </row>
     <row r="18" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -14517,7 +15663,7 @@
         <v>99</v>
       </c>
       <c r="BS18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BT18">
         <v>1</v>
@@ -14681,7 +15827,7 @@
     </row>
     <row r="19" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -14831,7 +15977,7 @@
         <v>98</v>
       </c>
       <c r="BE19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BF19">
         <v>6</v>
@@ -15037,7 +16183,7 @@
     </row>
     <row r="20" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -15217,7 +16363,7 @@
         <v>13</v>
       </c>
       <c r="BQ20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BR20" t="s">
         <v>99</v>
@@ -15393,7 +16539,7 @@
     </row>
     <row r="21" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -15492,7 +16638,7 @@
         <v>127</v>
       </c>
       <c r="AI21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -15584,7 +16730,7 @@
     </row>
     <row r="22" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -15704,7 +16850,7 @@
         <v>96</v>
       </c>
       <c r="AP22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AQ22" t="s">
         <v>33</v>
@@ -15722,7 +16868,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AW22">
         <v>9</v>
@@ -15949,7 +17095,7 @@
     </row>
     <row r="23" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -16045,7 +17191,7 @@
         <v>103</v>
       </c>
       <c r="AJ23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AK23">
         <v>5</v>
@@ -16138,7 +17284,7 @@
         <v>13</v>
       </c>
       <c r="BQ23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BR23" t="s">
         <v>125</v>
@@ -16216,7 +17362,7 @@
         <v>105</v>
       </c>
       <c r="CT23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="CU23" t="s">
         <v>59</v>
@@ -16312,7 +17458,181 @@
       <c r="FX23" s="1"/>
       <c r="FY23" s="1"/>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>136</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" t="s">
+        <v>283</v>
+      </c>
+      <c r="U24" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA24">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH24">
+        <v>136</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24">
+        <v>107</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR24">
+        <v>4</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV24">
+        <v>145</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY24">
+        <v>3</v>
+      </c>
+      <c r="AZ24">
+        <v>2</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC24">
+        <v>147</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF24">
+        <v>6</v>
+      </c>
+      <c r="BG24">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ24">
+        <v>162</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL24" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="FQ24" s="1"/>
       <c r="FR24" s="1"/>
       <c r="FS24" s="1"/>
@@ -16323,7 +17643,175 @@
       <c r="FX24" s="1"/>
       <c r="FY24" s="1"/>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>113</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" t="s">
+        <v>295</v>
+      </c>
+      <c r="U25" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25">
+        <v>70</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH25">
+        <v>140</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK25">
+        <v>5</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO25">
+        <v>35</v>
+      </c>
+      <c r="AP25">
+        <v>18</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
+      </c>
+      <c r="AZ25">
+        <v>2</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC25">
+        <v>129</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
+        <v>2</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ25">
+        <v>111</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>99</v>
+      </c>
       <c r="FQ25" s="1"/>
       <c r="FR25" s="1"/>
       <c r="FS25" s="1"/>
@@ -16334,7 +17822,175 @@
       <c r="FX25" s="1"/>
       <c r="FY25" s="1"/>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>146</v>
+      </c>
+      <c r="N26">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>144</v>
+      </c>
+      <c r="U26" t="s">
+        <v>99</v>
+      </c>
+      <c r="V26" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA26">
+        <v>79</v>
+      </c>
+      <c r="AB26">
+        <v>9</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH26">
+        <v>166</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK26">
+        <v>4</v>
+      </c>
+      <c r="AL26">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO26">
+        <v>78</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR26">
+        <v>5</v>
+      </c>
+      <c r="AS26">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY26">
+        <v>3</v>
+      </c>
+      <c r="AZ26">
+        <v>2</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC26">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF26">
+        <v>4</v>
+      </c>
+      <c r="BG26">
+        <v>2</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ26">
+        <v>152</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>101</v>
+      </c>
       <c r="FQ26" s="1"/>
       <c r="FR26" s="1"/>
       <c r="FS26" s="1"/>
@@ -16832,7 +18488,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A50A970-9DDD-AE45-ADA5-0A844CE1CCC7}">
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -17030,7 +18691,7 @@
     </row>
     <row r="2" spans="1:64" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -17537,7 +19198,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CC0DA-9313-794C-AB8B-A0BC8A8E7FE9}">
   <dimension ref="A1:FY40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17995,7 +19661,7 @@
     </row>
     <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -18052,7 +19718,7 @@
         <v>135</v>
       </c>
       <c r="U2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V2" t="s">
         <v>12</v>
@@ -18106,7 +19772,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AP2">
         <v>9</v>
@@ -18127,7 +19793,7 @@
         <v>13</v>
       </c>
       <c r="AV2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AW2" t="s">
         <v>112</v>
@@ -18304,7 +19970,7 @@
         <v>13</v>
       </c>
       <c r="DG2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DH2">
         <v>3</v>
@@ -19133,7 +20799,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958FDF7D-E734-1242-ADED-61CFBCF0C508}">
   <dimension ref="A1:FY40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19641,7 +21312,7 @@
     </row>
     <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -19752,7 +21423,7 @@
         <v>122</v>
       </c>
       <c r="AP2" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="s">
         <v>59</v>
@@ -19818,7 +21489,7 @@
         <v>35</v>
       </c>
       <c r="DX2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="DY2">
         <v>1</v>
@@ -19842,7 +21513,7 @@
         <v>117</v>
       </c>
       <c r="EG2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="EH2">
         <v>2</v>
@@ -19869,7 +21540,7 @@
         <v>69</v>
       </c>
       <c r="EP2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="EQ2">
         <v>3</v>
@@ -19907,7 +21578,7 @@
     </row>
     <row r="3" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -20000,7 +21671,7 @@
         <v>5</v>
       </c>
       <c r="AH3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AI3">
         <v>3</v>
@@ -20141,7 +21812,7 @@
         <v>192</v>
       </c>
       <c r="CF3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="CH3">
         <v>5</v>
@@ -21024,7 +22695,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D6BEE1-1AF2-4A47-AAA8-B27CBA862E2A}">
   <dimension ref="A1:FY40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21470,7 +23146,7 @@
     </row>
     <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -21593,7 +23269,7 @@
         <v>12</v>
       </c>
       <c r="AQ2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AR2">
         <v>4</v>
@@ -21746,7 +23422,7 @@
         <v>5</v>
       </c>
       <c r="CS2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="CT2" t="s">
         <v>106</v>
@@ -21767,7 +23443,7 @@
         <v>5</v>
       </c>
       <c r="CZ2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="DA2">
         <v>12</v>
@@ -21788,7 +23464,7 @@
         <v>13</v>
       </c>
       <c r="DG2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="DH2" t="s">
         <v>104</v>
@@ -22615,7 +24291,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6F363-DF01-2C48-B717-96E557B002FB}">
   <dimension ref="A1:FY40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23061,7 +24742,7 @@
     </row>
     <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -23082,7 +24763,7 @@
         <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I2">
         <v>6</v>
@@ -23097,7 +24778,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N2" t="s">
         <v>112</v>
@@ -23211,7 +24892,7 @@
         <v>13</v>
       </c>
       <c r="BC2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="BD2">
         <v>9</v>
@@ -23292,7 +24973,7 @@
         <v>113</v>
       </c>
       <c r="CG2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="CH2">
         <v>5</v>
@@ -23391,7 +25072,7 @@
         <v>106</v>
       </c>
       <c r="DP2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DQ2">
         <v>4</v>
@@ -24187,4 +25868,7160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A55BB7-D5AF-ED4C-9D82-B378795BED43}">
+  <dimension ref="A1:FY40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="64" max="64" width="10.83203125" style="15"/>
+    <col min="127" max="127" width="10.83203125" style="15"/>
+    <col min="128" max="175" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="7"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="7"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+    </row>
+    <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>126</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>132</v>
+      </c>
+      <c r="U2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>171</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>116</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2">
+        <v>180</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>206</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2">
+        <v>4</v>
+      </c>
+      <c r="AZ2">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC2">
+        <v>180</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF2">
+        <v>5</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
+      <c r="DO2" s="16"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="16"/>
+      <c r="DV2" s="16"/>
+      <c r="DW2" s="18"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+    </row>
+    <row r="3" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="16"/>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16"/>
+      <c r="CX3" s="16"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="16"/>
+      <c r="DB3" s="16"/>
+      <c r="DC3" s="16"/>
+      <c r="DD3" s="16"/>
+      <c r="DE3" s="16"/>
+      <c r="DF3" s="16"/>
+      <c r="DG3" s="16"/>
+      <c r="DH3" s="16"/>
+      <c r="DI3" s="16"/>
+      <c r="DJ3" s="16"/>
+      <c r="DK3" s="16"/>
+      <c r="DL3" s="16"/>
+      <c r="DM3" s="16"/>
+      <c r="DN3" s="16"/>
+      <c r="DO3" s="16"/>
+      <c r="DP3" s="16"/>
+      <c r="DQ3" s="16"/>
+      <c r="DR3" s="16"/>
+      <c r="DS3" s="16"/>
+      <c r="DT3" s="16"/>
+      <c r="DU3" s="16"/>
+      <c r="DV3" s="16"/>
+      <c r="DW3" s="18"/>
+      <c r="FQ3" s="8"/>
+      <c r="FR3" s="8"/>
+      <c r="FS3" s="8"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+    </row>
+    <row r="4" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
+      <c r="CX4" s="16"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="16"/>
+      <c r="DA4" s="16"/>
+      <c r="DB4" s="16"/>
+      <c r="DC4" s="16"/>
+      <c r="DD4" s="16"/>
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="16"/>
+      <c r="DG4" s="16"/>
+      <c r="DH4" s="16"/>
+      <c r="DI4" s="16"/>
+      <c r="DJ4" s="16"/>
+      <c r="DK4" s="16"/>
+      <c r="DL4" s="16"/>
+      <c r="DM4" s="16"/>
+      <c r="DN4" s="16"/>
+      <c r="DO4" s="16"/>
+      <c r="DP4" s="16"/>
+      <c r="DQ4" s="16"/>
+      <c r="DR4" s="16"/>
+      <c r="DS4" s="16"/>
+      <c r="DT4" s="16"/>
+      <c r="DU4" s="16"/>
+      <c r="DV4" s="16"/>
+      <c r="DW4" s="18"/>
+      <c r="FQ4" s="8"/>
+      <c r="FR4" s="8"/>
+      <c r="FS4" s="8"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+    </row>
+    <row r="5" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
+      <c r="DD5" s="16"/>
+      <c r="DE5" s="16"/>
+      <c r="DF5" s="16"/>
+      <c r="DG5" s="16"/>
+      <c r="DH5" s="16"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="16"/>
+      <c r="DO5" s="16"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="16"/>
+      <c r="DR5" s="16"/>
+      <c r="DS5" s="16"/>
+      <c r="DT5" s="16"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="18"/>
+      <c r="FQ5" s="8"/>
+      <c r="FR5" s="8"/>
+      <c r="FS5" s="8"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+    </row>
+    <row r="6" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
+      <c r="DD6" s="16"/>
+      <c r="DE6" s="16"/>
+      <c r="DF6" s="16"/>
+      <c r="DG6" s="16"/>
+      <c r="DH6" s="16"/>
+      <c r="DI6" s="16"/>
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="16"/>
+      <c r="DL6" s="16"/>
+      <c r="DM6" s="16"/>
+      <c r="DN6" s="16"/>
+      <c r="DO6" s="16"/>
+      <c r="DP6" s="16"/>
+      <c r="DQ6" s="16"/>
+      <c r="DR6" s="16"/>
+      <c r="DS6" s="16"/>
+      <c r="DT6" s="16"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="18"/>
+      <c r="FQ6" s="8"/>
+      <c r="FR6" s="8"/>
+      <c r="FS6" s="8"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" s="1"/>
+      <c r="FW6" s="1"/>
+      <c r="FX6" s="1"/>
+      <c r="FY6" s="1"/>
+    </row>
+    <row r="7" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
+      <c r="CU7" s="16"/>
+      <c r="CV7" s="16"/>
+      <c r="CW7" s="16"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
+      <c r="DA7" s="16"/>
+      <c r="DB7" s="16"/>
+      <c r="DC7" s="16"/>
+      <c r="DD7" s="16"/>
+      <c r="DE7" s="16"/>
+      <c r="DF7" s="16"/>
+      <c r="DG7" s="16"/>
+      <c r="DH7" s="16"/>
+      <c r="DI7" s="16"/>
+      <c r="DJ7" s="16"/>
+      <c r="DK7" s="16"/>
+      <c r="DL7" s="16"/>
+      <c r="DM7" s="16"/>
+      <c r="DN7" s="16"/>
+      <c r="DO7" s="16"/>
+      <c r="DP7" s="16"/>
+      <c r="DQ7" s="16"/>
+      <c r="DR7" s="16"/>
+      <c r="DS7" s="16"/>
+      <c r="DT7" s="16"/>
+      <c r="DU7" s="16"/>
+      <c r="DV7" s="16"/>
+      <c r="DW7" s="18"/>
+      <c r="FQ7" s="8"/>
+      <c r="FR7" s="8"/>
+      <c r="FS7" s="8"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" s="1"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="1"/>
+      <c r="FY7" s="1"/>
+    </row>
+    <row r="8" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
+      <c r="CP8" s="16"/>
+      <c r="CQ8" s="16"/>
+      <c r="CR8" s="16"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="16"/>
+      <c r="CU8" s="16"/>
+      <c r="CV8" s="16"/>
+      <c r="CW8" s="16"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
+      <c r="DA8" s="16"/>
+      <c r="DB8" s="16"/>
+      <c r="DC8" s="16"/>
+      <c r="DD8" s="16"/>
+      <c r="DE8" s="16"/>
+      <c r="DF8" s="16"/>
+      <c r="DG8" s="16"/>
+      <c r="DH8" s="16"/>
+      <c r="DI8" s="16"/>
+      <c r="DJ8" s="16"/>
+      <c r="DK8" s="16"/>
+      <c r="DL8" s="16"/>
+      <c r="DM8" s="16"/>
+      <c r="DN8" s="16"/>
+      <c r="DO8" s="16"/>
+      <c r="DP8" s="16"/>
+      <c r="DQ8" s="16"/>
+      <c r="DR8" s="16"/>
+      <c r="DS8" s="16"/>
+      <c r="DT8" s="16"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="18"/>
+      <c r="EP8" s="8"/>
+      <c r="EQ8" s="8"/>
+      <c r="FR8" s="8"/>
+      <c r="FS8" s="8"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="1"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+    </row>
+    <row r="9" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
+      <c r="DA9" s="16"/>
+      <c r="DB9" s="16"/>
+      <c r="DC9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16"/>
+      <c r="DF9" s="16"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
+      <c r="DI9" s="16"/>
+      <c r="DJ9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16"/>
+      <c r="DM9" s="16"/>
+      <c r="DN9" s="16"/>
+      <c r="DO9" s="16"/>
+      <c r="DP9" s="16"/>
+      <c r="DQ9" s="16"/>
+      <c r="DR9" s="16"/>
+      <c r="DS9" s="16"/>
+      <c r="DT9" s="16"/>
+      <c r="DU9" s="16"/>
+      <c r="DV9" s="16"/>
+      <c r="DW9" s="18"/>
+      <c r="FQ9" s="8"/>
+      <c r="FR9" s="8"/>
+      <c r="FS9" s="8"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+    </row>
+    <row r="10" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
+      <c r="DF10" s="16"/>
+      <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
+      <c r="DI10" s="16"/>
+      <c r="DJ10" s="16"/>
+      <c r="DK10" s="16"/>
+      <c r="DL10" s="16"/>
+      <c r="DM10" s="16"/>
+      <c r="DN10" s="16"/>
+      <c r="DO10" s="16"/>
+      <c r="DP10" s="16"/>
+      <c r="DQ10" s="16"/>
+      <c r="DR10" s="16"/>
+      <c r="DS10" s="16"/>
+      <c r="DT10" s="16"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="16"/>
+      <c r="DW10" s="18"/>
+      <c r="FQ10" s="8"/>
+      <c r="FR10" s="8"/>
+      <c r="FS10" s="8"/>
+      <c r="FT10" s="1"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" s="1"/>
+      <c r="FW10" s="1"/>
+      <c r="FX10" s="1"/>
+      <c r="FY10" s="1"/>
+    </row>
+    <row r="11" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="16"/>
+      <c r="CP11" s="16"/>
+      <c r="CQ11" s="16"/>
+      <c r="CR11" s="16"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="16"/>
+      <c r="CU11" s="16"/>
+      <c r="CV11" s="16"/>
+      <c r="CW11" s="16"/>
+      <c r="CX11" s="16"/>
+      <c r="CY11" s="16"/>
+      <c r="CZ11" s="16"/>
+      <c r="DA11" s="16"/>
+      <c r="DB11" s="16"/>
+      <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
+      <c r="DE11" s="16"/>
+      <c r="DF11" s="16"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
+      <c r="DI11" s="16"/>
+      <c r="DJ11" s="16"/>
+      <c r="DK11" s="16"/>
+      <c r="DL11" s="16"/>
+      <c r="DM11" s="16"/>
+      <c r="DN11" s="16"/>
+      <c r="DO11" s="16"/>
+      <c r="DP11" s="16"/>
+      <c r="DQ11" s="16"/>
+      <c r="DR11" s="16"/>
+      <c r="DS11" s="16"/>
+      <c r="DT11" s="16"/>
+      <c r="DU11" s="16"/>
+      <c r="DV11" s="16"/>
+      <c r="DW11" s="18"/>
+      <c r="FQ11" s="8"/>
+      <c r="FR11" s="8"/>
+      <c r="FS11" s="8"/>
+      <c r="FT11" s="1"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" s="1"/>
+      <c r="FW11" s="1"/>
+      <c r="FX11" s="1"/>
+      <c r="FY11" s="1"/>
+    </row>
+    <row r="12" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
+      <c r="CV12" s="16"/>
+      <c r="CW12" s="16"/>
+      <c r="CX12" s="16"/>
+      <c r="CY12" s="16"/>
+      <c r="CZ12" s="16"/>
+      <c r="DA12" s="16"/>
+      <c r="DB12" s="16"/>
+      <c r="DC12" s="16"/>
+      <c r="DD12" s="16"/>
+      <c r="DE12" s="16"/>
+      <c r="DF12" s="16"/>
+      <c r="DG12" s="16"/>
+      <c r="DH12" s="16"/>
+      <c r="DI12" s="16"/>
+      <c r="DJ12" s="16"/>
+      <c r="DK12" s="16"/>
+      <c r="DL12" s="16"/>
+      <c r="DM12" s="16"/>
+      <c r="DN12" s="16"/>
+      <c r="DO12" s="16"/>
+      <c r="DP12" s="16"/>
+      <c r="DQ12" s="16"/>
+      <c r="DR12" s="16"/>
+      <c r="DS12" s="16"/>
+      <c r="DT12" s="16"/>
+      <c r="DU12" s="16"/>
+      <c r="DV12" s="16"/>
+      <c r="DW12" s="18"/>
+      <c r="FQ12" s="8"/>
+      <c r="FR12" s="8"/>
+      <c r="FS12" s="8"/>
+      <c r="FT12" s="1"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" s="1"/>
+      <c r="FW12" s="1"/>
+      <c r="FX12" s="1"/>
+      <c r="FY12" s="1"/>
+    </row>
+    <row r="13" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="16"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="16"/>
+      <c r="CP13" s="16"/>
+      <c r="CQ13" s="16"/>
+      <c r="CR13" s="16"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="16"/>
+      <c r="CU13" s="16"/>
+      <c r="CV13" s="16"/>
+      <c r="CW13" s="16"/>
+      <c r="CX13" s="16"/>
+      <c r="CY13" s="16"/>
+      <c r="CZ13" s="16"/>
+      <c r="DA13" s="16"/>
+      <c r="DB13" s="16"/>
+      <c r="DC13" s="16"/>
+      <c r="DD13" s="16"/>
+      <c r="DE13" s="16"/>
+      <c r="DF13" s="16"/>
+      <c r="DG13" s="16"/>
+      <c r="DH13" s="16"/>
+      <c r="DI13" s="16"/>
+      <c r="DJ13" s="16"/>
+      <c r="DK13" s="16"/>
+      <c r="DL13" s="16"/>
+      <c r="DM13" s="16"/>
+      <c r="DN13" s="16"/>
+      <c r="DO13" s="16"/>
+      <c r="DP13" s="16"/>
+      <c r="DQ13" s="16"/>
+      <c r="DR13" s="16"/>
+      <c r="DS13" s="16"/>
+      <c r="DT13" s="16"/>
+      <c r="DU13" s="16"/>
+      <c r="DV13" s="16"/>
+      <c r="DW13" s="18"/>
+      <c r="FQ13" s="8"/>
+      <c r="FR13" s="8"/>
+      <c r="FS13" s="8"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" s="1"/>
+      <c r="FW13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="FY13" s="1"/>
+    </row>
+    <row r="14" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
+      <c r="DA14" s="16"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="16"/>
+      <c r="DD14" s="16"/>
+      <c r="DE14" s="16"/>
+      <c r="DF14" s="16"/>
+      <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
+      <c r="DI14" s="16"/>
+      <c r="DJ14" s="16"/>
+      <c r="DK14" s="16"/>
+      <c r="DL14" s="16"/>
+      <c r="DM14" s="16"/>
+      <c r="DN14" s="16"/>
+      <c r="DO14" s="16"/>
+      <c r="DP14" s="16"/>
+      <c r="DQ14" s="16"/>
+      <c r="DR14" s="16"/>
+      <c r="DS14" s="16"/>
+      <c r="DT14" s="16"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="18"/>
+      <c r="FQ14" s="8"/>
+      <c r="FR14" s="8"/>
+      <c r="FS14" s="8"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" s="1"/>
+      <c r="FW14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="FY14" s="1"/>
+    </row>
+    <row r="15" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="16"/>
+      <c r="BT15" s="16"/>
+      <c r="BU15" s="16"/>
+      <c r="BV15" s="16"/>
+      <c r="BW15" s="16"/>
+      <c r="BX15" s="16"/>
+      <c r="BY15" s="16"/>
+      <c r="BZ15" s="16"/>
+      <c r="CA15" s="16"/>
+      <c r="CB15" s="16"/>
+      <c r="CC15" s="16"/>
+      <c r="CD15" s="16"/>
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="16"/>
+      <c r="CG15" s="16"/>
+      <c r="CH15" s="16"/>
+      <c r="CI15" s="16"/>
+      <c r="CJ15" s="16"/>
+      <c r="CK15" s="16"/>
+      <c r="CL15" s="16"/>
+      <c r="CM15" s="16"/>
+      <c r="CN15" s="16"/>
+      <c r="CO15" s="16"/>
+      <c r="CP15" s="16"/>
+      <c r="CQ15" s="16"/>
+      <c r="CR15" s="16"/>
+      <c r="CS15" s="16"/>
+      <c r="CT15" s="16"/>
+      <c r="CU15" s="16"/>
+      <c r="CV15" s="16"/>
+      <c r="CW15" s="16"/>
+      <c r="CX15" s="16"/>
+      <c r="CY15" s="16"/>
+      <c r="CZ15" s="16"/>
+      <c r="DA15" s="16"/>
+      <c r="DB15" s="16"/>
+      <c r="DC15" s="16"/>
+      <c r="DD15" s="16"/>
+      <c r="DE15" s="16"/>
+      <c r="DF15" s="16"/>
+      <c r="DG15" s="16"/>
+      <c r="DH15" s="16"/>
+      <c r="DI15" s="16"/>
+      <c r="DJ15" s="16"/>
+      <c r="DK15" s="16"/>
+      <c r="DL15" s="16"/>
+      <c r="DM15" s="16"/>
+      <c r="DN15" s="16"/>
+      <c r="DO15" s="16"/>
+      <c r="DP15" s="16"/>
+      <c r="DQ15" s="16"/>
+      <c r="DR15" s="16"/>
+      <c r="DS15" s="16"/>
+      <c r="DT15" s="16"/>
+      <c r="DU15" s="16"/>
+      <c r="DV15" s="16"/>
+      <c r="DW15" s="18"/>
+      <c r="FQ15" s="8"/>
+      <c r="FR15" s="8"/>
+      <c r="FS15" s="8"/>
+      <c r="FT15" s="1"/>
+      <c r="FU15" s="1"/>
+      <c r="FV15" s="1"/>
+      <c r="FW15" s="1"/>
+      <c r="FX15" s="1"/>
+      <c r="FY15" s="1"/>
+    </row>
+    <row r="16" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="16"/>
+      <c r="BT16" s="16"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="16"/>
+      <c r="BZ16" s="16"/>
+      <c r="CA16" s="16"/>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="16"/>
+      <c r="CD16" s="16"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="16"/>
+      <c r="CG16" s="16"/>
+      <c r="CH16" s="16"/>
+      <c r="CI16" s="16"/>
+      <c r="CJ16" s="16"/>
+      <c r="CK16" s="16"/>
+      <c r="CL16" s="16"/>
+      <c r="CM16" s="16"/>
+      <c r="CN16" s="16"/>
+      <c r="CO16" s="16"/>
+      <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
+      <c r="CR16" s="16"/>
+      <c r="CS16" s="16"/>
+      <c r="CT16" s="16"/>
+      <c r="CU16" s="16"/>
+      <c r="CV16" s="16"/>
+      <c r="CW16" s="16"/>
+      <c r="CX16" s="16"/>
+      <c r="CY16" s="16"/>
+      <c r="CZ16" s="16"/>
+      <c r="DA16" s="16"/>
+      <c r="DB16" s="16"/>
+      <c r="DC16" s="16"/>
+      <c r="DD16" s="16"/>
+      <c r="DE16" s="16"/>
+      <c r="DF16" s="16"/>
+      <c r="DG16" s="16"/>
+      <c r="DH16" s="16"/>
+      <c r="DI16" s="16"/>
+      <c r="DJ16" s="16"/>
+      <c r="DK16" s="16"/>
+      <c r="DL16" s="16"/>
+      <c r="DM16" s="16"/>
+      <c r="DN16" s="16"/>
+      <c r="DO16" s="16"/>
+      <c r="DP16" s="16"/>
+      <c r="DQ16" s="16"/>
+      <c r="DR16" s="16"/>
+      <c r="DS16" s="16"/>
+      <c r="DT16" s="16"/>
+      <c r="DU16" s="16"/>
+      <c r="DV16" s="16"/>
+      <c r="DW16" s="18"/>
+      <c r="FQ16" s="8"/>
+      <c r="FR16" s="8"/>
+      <c r="FS16" s="8"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" s="1"/>
+      <c r="FW16" s="1"/>
+      <c r="FX16" s="1"/>
+      <c r="FY16" s="1"/>
+    </row>
+    <row r="17" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="16"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+      <c r="BY17" s="16"/>
+      <c r="BZ17" s="16"/>
+      <c r="CA17" s="16"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="16"/>
+      <c r="CD17" s="16"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="16"/>
+      <c r="CG17" s="16"/>
+      <c r="CH17" s="16"/>
+      <c r="CI17" s="16"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="16"/>
+      <c r="CL17" s="16"/>
+      <c r="CM17" s="16"/>
+      <c r="CN17" s="16"/>
+      <c r="CO17" s="16"/>
+      <c r="CP17" s="16"/>
+      <c r="CQ17" s="16"/>
+      <c r="CR17" s="16"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="16"/>
+      <c r="CU17" s="16"/>
+      <c r="CV17" s="16"/>
+      <c r="CW17" s="16"/>
+      <c r="CX17" s="16"/>
+      <c r="CY17" s="16"/>
+      <c r="CZ17" s="16"/>
+      <c r="DA17" s="16"/>
+      <c r="DB17" s="16"/>
+      <c r="DC17" s="16"/>
+      <c r="DD17" s="16"/>
+      <c r="DE17" s="16"/>
+      <c r="DF17" s="16"/>
+      <c r="DG17" s="16"/>
+      <c r="DH17" s="16"/>
+      <c r="DI17" s="16"/>
+      <c r="DJ17" s="16"/>
+      <c r="DK17" s="16"/>
+      <c r="DL17" s="16"/>
+      <c r="DM17" s="16"/>
+      <c r="DN17" s="16"/>
+      <c r="DO17" s="16"/>
+      <c r="DP17" s="16"/>
+      <c r="DQ17" s="16"/>
+      <c r="DR17" s="16"/>
+      <c r="DS17" s="16"/>
+      <c r="DT17" s="16"/>
+      <c r="DU17" s="16"/>
+      <c r="DV17" s="16"/>
+      <c r="DW17" s="18"/>
+      <c r="EG17" s="8"/>
+      <c r="FQ17" s="8"/>
+      <c r="FR17" s="8"/>
+      <c r="FS17" s="8"/>
+      <c r="FT17" s="1"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" s="1"/>
+      <c r="FW17" s="1"/>
+      <c r="FX17" s="1"/>
+      <c r="FY17" s="1"/>
+    </row>
+    <row r="18" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+      <c r="CG18" s="16"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
+      <c r="CN18" s="16"/>
+      <c r="CO18" s="16"/>
+      <c r="CP18" s="16"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
+      <c r="CW18" s="16"/>
+      <c r="CX18" s="16"/>
+      <c r="CY18" s="16"/>
+      <c r="CZ18" s="16"/>
+      <c r="DA18" s="16"/>
+      <c r="DB18" s="16"/>
+      <c r="DC18" s="16"/>
+      <c r="DD18" s="16"/>
+      <c r="DE18" s="16"/>
+      <c r="DF18" s="16"/>
+      <c r="DG18" s="16"/>
+      <c r="DH18" s="16"/>
+      <c r="DI18" s="16"/>
+      <c r="DJ18" s="16"/>
+      <c r="DK18" s="16"/>
+      <c r="DL18" s="16"/>
+      <c r="DM18" s="16"/>
+      <c r="DN18" s="16"/>
+      <c r="DO18" s="16"/>
+      <c r="DP18" s="16"/>
+      <c r="DQ18" s="16"/>
+      <c r="DR18" s="16"/>
+      <c r="DS18" s="16"/>
+      <c r="DT18" s="16"/>
+      <c r="DU18" s="16"/>
+      <c r="DV18" s="16"/>
+      <c r="DW18" s="18"/>
+      <c r="FQ18" s="8"/>
+      <c r="FR18" s="8"/>
+      <c r="FS18" s="8"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" s="1"/>
+      <c r="FW18" s="1"/>
+      <c r="FX18" s="1"/>
+      <c r="FY18" s="1"/>
+    </row>
+    <row r="19" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="16"/>
+      <c r="BT19" s="16"/>
+      <c r="BU19" s="16"/>
+      <c r="BV19" s="16"/>
+      <c r="BW19" s="16"/>
+      <c r="BX19" s="16"/>
+      <c r="BY19" s="16"/>
+      <c r="BZ19" s="16"/>
+      <c r="CA19" s="16"/>
+      <c r="CB19" s="16"/>
+      <c r="CC19" s="16"/>
+      <c r="CD19" s="16"/>
+      <c r="CE19" s="16"/>
+      <c r="CF19" s="16"/>
+      <c r="CG19" s="16"/>
+      <c r="CH19" s="16"/>
+      <c r="CI19" s="16"/>
+      <c r="CJ19" s="16"/>
+      <c r="CK19" s="16"/>
+      <c r="CL19" s="16"/>
+      <c r="CM19" s="16"/>
+      <c r="CN19" s="16"/>
+      <c r="CO19" s="16"/>
+      <c r="CP19" s="16"/>
+      <c r="CQ19" s="16"/>
+      <c r="CR19" s="16"/>
+      <c r="CS19" s="16"/>
+      <c r="CT19" s="16"/>
+      <c r="CU19" s="16"/>
+      <c r="CV19" s="16"/>
+      <c r="CW19" s="16"/>
+      <c r="CX19" s="16"/>
+      <c r="CY19" s="16"/>
+      <c r="CZ19" s="16"/>
+      <c r="DA19" s="16"/>
+      <c r="DB19" s="16"/>
+      <c r="DC19" s="16"/>
+      <c r="DD19" s="16"/>
+      <c r="DE19" s="16"/>
+      <c r="DF19" s="16"/>
+      <c r="DG19" s="16"/>
+      <c r="DH19" s="16"/>
+      <c r="DI19" s="16"/>
+      <c r="DJ19" s="16"/>
+      <c r="DK19" s="16"/>
+      <c r="DL19" s="16"/>
+      <c r="DM19" s="16"/>
+      <c r="DN19" s="16"/>
+      <c r="DO19" s="16"/>
+      <c r="DP19" s="16"/>
+      <c r="DQ19" s="16"/>
+      <c r="DR19" s="16"/>
+      <c r="DS19" s="16"/>
+      <c r="DT19" s="16"/>
+      <c r="DU19" s="16"/>
+      <c r="DV19" s="16"/>
+      <c r="DW19" s="18"/>
+      <c r="FQ19" s="8"/>
+      <c r="FR19" s="8"/>
+      <c r="FS19" s="8"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" s="1"/>
+      <c r="FW19" s="1"/>
+      <c r="FX19" s="1"/>
+      <c r="FY19" s="1"/>
+    </row>
+    <row r="20" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="16"/>
+      <c r="CA20" s="16"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="16"/>
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
+      <c r="CJ20" s="16"/>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="16"/>
+      <c r="CM20" s="16"/>
+      <c r="CN20" s="16"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="16"/>
+      <c r="CQ20" s="16"/>
+      <c r="CR20" s="16"/>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="16"/>
+      <c r="CU20" s="16"/>
+      <c r="CV20" s="16"/>
+      <c r="CW20" s="16"/>
+      <c r="CX20" s="16"/>
+      <c r="CY20" s="16"/>
+      <c r="CZ20" s="16"/>
+      <c r="DA20" s="16"/>
+      <c r="DB20" s="16"/>
+      <c r="DC20" s="16"/>
+      <c r="DD20" s="16"/>
+      <c r="DE20" s="16"/>
+      <c r="DF20" s="16"/>
+      <c r="DG20" s="16"/>
+      <c r="DH20" s="16"/>
+      <c r="DI20" s="16"/>
+      <c r="DJ20" s="16"/>
+      <c r="DK20" s="16"/>
+      <c r="DL20" s="16"/>
+      <c r="DM20" s="16"/>
+      <c r="DN20" s="16"/>
+      <c r="DO20" s="16"/>
+      <c r="DP20" s="16"/>
+      <c r="DQ20" s="16"/>
+      <c r="DR20" s="16"/>
+      <c r="DS20" s="16"/>
+      <c r="DT20" s="16"/>
+      <c r="DU20" s="16"/>
+      <c r="DV20" s="16"/>
+      <c r="DW20" s="18"/>
+      <c r="FQ20" s="8"/>
+      <c r="FR20" s="8"/>
+      <c r="FS20" s="8"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="1"/>
+      <c r="FY20" s="1"/>
+    </row>
+    <row r="21" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="16"/>
+      <c r="BT21" s="16"/>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="16"/>
+      <c r="BW21" s="16"/>
+      <c r="BX21" s="16"/>
+      <c r="BY21" s="16"/>
+      <c r="BZ21" s="16"/>
+      <c r="CA21" s="16"/>
+      <c r="CB21" s="16"/>
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="16"/>
+      <c r="CE21" s="16"/>
+      <c r="CF21" s="16"/>
+      <c r="CG21" s="16"/>
+      <c r="CH21" s="16"/>
+      <c r="CI21" s="16"/>
+      <c r="CJ21" s="16"/>
+      <c r="CK21" s="16"/>
+      <c r="CL21" s="16"/>
+      <c r="CM21" s="16"/>
+      <c r="CN21" s="16"/>
+      <c r="CO21" s="16"/>
+      <c r="CP21" s="16"/>
+      <c r="CQ21" s="16"/>
+      <c r="CR21" s="16"/>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="16"/>
+      <c r="CU21" s="16"/>
+      <c r="CV21" s="16"/>
+      <c r="CW21" s="16"/>
+      <c r="CX21" s="16"/>
+      <c r="CY21" s="16"/>
+      <c r="CZ21" s="16"/>
+      <c r="DA21" s="16"/>
+      <c r="DB21" s="16"/>
+      <c r="DC21" s="16"/>
+      <c r="DD21" s="16"/>
+      <c r="DE21" s="16"/>
+      <c r="DF21" s="16"/>
+      <c r="DG21" s="16"/>
+      <c r="DH21" s="16"/>
+      <c r="DI21" s="16"/>
+      <c r="DJ21" s="16"/>
+      <c r="DK21" s="16"/>
+      <c r="DL21" s="16"/>
+      <c r="DM21" s="16"/>
+      <c r="DN21" s="16"/>
+      <c r="DO21" s="16"/>
+      <c r="DP21" s="16"/>
+      <c r="DQ21" s="16"/>
+      <c r="DR21" s="16"/>
+      <c r="DS21" s="16"/>
+      <c r="DT21" s="16"/>
+      <c r="DU21" s="16"/>
+      <c r="DV21" s="16"/>
+      <c r="DW21" s="18"/>
+      <c r="FQ21" s="8"/>
+      <c r="FR21" s="8"/>
+      <c r="FS21" s="8"/>
+      <c r="FT21" s="1"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" s="1"/>
+      <c r="FW21" s="1"/>
+      <c r="FX21" s="1"/>
+      <c r="FY21" s="1"/>
+    </row>
+    <row r="22" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="16"/>
+      <c r="BT22" s="16"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="16"/>
+      <c r="BW22" s="16"/>
+      <c r="BX22" s="16"/>
+      <c r="BY22" s="16"/>
+      <c r="BZ22" s="16"/>
+      <c r="CA22" s="16"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+      <c r="CG22" s="16"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="16"/>
+      <c r="CU22" s="16"/>
+      <c r="CV22" s="16"/>
+      <c r="CW22" s="16"/>
+      <c r="CX22" s="16"/>
+      <c r="CY22" s="16"/>
+      <c r="CZ22" s="16"/>
+      <c r="DA22" s="16"/>
+      <c r="DB22" s="16"/>
+      <c r="DC22" s="16"/>
+      <c r="DD22" s="16"/>
+      <c r="DE22" s="16"/>
+      <c r="DF22" s="16"/>
+      <c r="DG22" s="16"/>
+      <c r="DH22" s="16"/>
+      <c r="DI22" s="16"/>
+      <c r="DJ22" s="16"/>
+      <c r="DK22" s="16"/>
+      <c r="DL22" s="16"/>
+      <c r="DM22" s="16"/>
+      <c r="DN22" s="16"/>
+      <c r="DO22" s="16"/>
+      <c r="DP22" s="16"/>
+      <c r="DQ22" s="16"/>
+      <c r="DR22" s="16"/>
+      <c r="DS22" s="16"/>
+      <c r="DT22" s="16"/>
+      <c r="DU22" s="16"/>
+      <c r="DV22" s="16"/>
+      <c r="DW22" s="18"/>
+      <c r="FQ22" s="8"/>
+      <c r="FR22" s="8"/>
+      <c r="FS22" s="8"/>
+      <c r="FT22" s="1"/>
+      <c r="FU22" s="1"/>
+      <c r="FV22" s="1"/>
+      <c r="FW22" s="1"/>
+      <c r="FX22" s="1"/>
+      <c r="FY22" s="1"/>
+    </row>
+    <row r="23" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="16"/>
+      <c r="BP23" s="16"/>
+      <c r="BQ23" s="16"/>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="16"/>
+      <c r="BT23" s="16"/>
+      <c r="BU23" s="16"/>
+      <c r="BV23" s="16"/>
+      <c r="BW23" s="16"/>
+      <c r="BX23" s="16"/>
+      <c r="BY23" s="16"/>
+      <c r="BZ23" s="16"/>
+      <c r="CA23" s="16"/>
+      <c r="CB23" s="16"/>
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="16"/>
+      <c r="CE23" s="16"/>
+      <c r="CF23" s="16"/>
+      <c r="CG23" s="16"/>
+      <c r="CH23" s="16"/>
+      <c r="CI23" s="16"/>
+      <c r="CJ23" s="16"/>
+      <c r="CK23" s="16"/>
+      <c r="CL23" s="16"/>
+      <c r="CM23" s="16"/>
+      <c r="CN23" s="16"/>
+      <c r="CO23" s="16"/>
+      <c r="CP23" s="16"/>
+      <c r="CQ23" s="16"/>
+      <c r="CR23" s="16"/>
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="16"/>
+      <c r="CU23" s="16"/>
+      <c r="CV23" s="16"/>
+      <c r="CW23" s="16"/>
+      <c r="CX23" s="16"/>
+      <c r="CY23" s="16"/>
+      <c r="CZ23" s="16"/>
+      <c r="DA23" s="16"/>
+      <c r="DB23" s="16"/>
+      <c r="DC23" s="16"/>
+      <c r="DD23" s="16"/>
+      <c r="DE23" s="16"/>
+      <c r="DF23" s="16"/>
+      <c r="DG23" s="16"/>
+      <c r="DH23" s="16"/>
+      <c r="DI23" s="16"/>
+      <c r="DJ23" s="16"/>
+      <c r="DK23" s="16"/>
+      <c r="DL23" s="16"/>
+      <c r="DM23" s="16"/>
+      <c r="DN23" s="16"/>
+      <c r="DO23" s="16"/>
+      <c r="DP23" s="16"/>
+      <c r="DQ23" s="16"/>
+      <c r="DR23" s="16"/>
+      <c r="DS23" s="16"/>
+      <c r="DT23" s="16"/>
+      <c r="DU23" s="16"/>
+      <c r="DV23" s="16"/>
+      <c r="DW23" s="18"/>
+      <c r="FQ23" s="8"/>
+      <c r="FR23" s="8"/>
+      <c r="FS23" s="8"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" s="1"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+    </row>
+    <row r="24" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM24" s="16"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="16"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="16"/>
+      <c r="BR24" s="16"/>
+      <c r="BS24" s="16"/>
+      <c r="BT24" s="16"/>
+      <c r="BU24" s="16"/>
+      <c r="BV24" s="16"/>
+      <c r="BW24" s="16"/>
+      <c r="BX24" s="16"/>
+      <c r="BY24" s="16"/>
+      <c r="BZ24" s="16"/>
+      <c r="CA24" s="16"/>
+      <c r="CB24" s="16"/>
+      <c r="CC24" s="16"/>
+      <c r="CD24" s="16"/>
+      <c r="CE24" s="16"/>
+      <c r="CF24" s="16"/>
+      <c r="CG24" s="16"/>
+      <c r="CH24" s="16"/>
+      <c r="CI24" s="16"/>
+      <c r="CJ24" s="16"/>
+      <c r="CK24" s="16"/>
+      <c r="CL24" s="16"/>
+      <c r="CM24" s="16"/>
+      <c r="CN24" s="16"/>
+      <c r="CO24" s="16"/>
+      <c r="CP24" s="16"/>
+      <c r="CQ24" s="16"/>
+      <c r="CR24" s="16"/>
+      <c r="CS24" s="16"/>
+      <c r="CT24" s="16"/>
+      <c r="CU24" s="16"/>
+      <c r="CV24" s="16"/>
+      <c r="CW24" s="16"/>
+      <c r="CX24" s="16"/>
+      <c r="CY24" s="16"/>
+      <c r="CZ24" s="16"/>
+      <c r="DA24" s="16"/>
+      <c r="DB24" s="16"/>
+      <c r="DC24" s="16"/>
+      <c r="DD24" s="16"/>
+      <c r="DE24" s="16"/>
+      <c r="DF24" s="16"/>
+      <c r="DG24" s="16"/>
+      <c r="DH24" s="16"/>
+      <c r="DI24" s="16"/>
+      <c r="DJ24" s="16"/>
+      <c r="DK24" s="16"/>
+      <c r="DL24" s="16"/>
+      <c r="DM24" s="16"/>
+      <c r="DN24" s="16"/>
+      <c r="DO24" s="16"/>
+      <c r="DP24" s="16"/>
+      <c r="DQ24" s="16"/>
+      <c r="DR24" s="16"/>
+      <c r="DS24" s="16"/>
+      <c r="DT24" s="16"/>
+      <c r="DU24" s="16"/>
+      <c r="DV24" s="16"/>
+      <c r="DW24" s="18"/>
+      <c r="FQ24" s="8"/>
+      <c r="FR24" s="8"/>
+      <c r="FS24" s="8"/>
+      <c r="FT24" s="1"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" s="1"/>
+      <c r="FW24" s="1"/>
+      <c r="FX24" s="1"/>
+      <c r="FY24" s="1"/>
+    </row>
+    <row r="25" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM25" s="16"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="16"/>
+      <c r="BP25" s="16"/>
+      <c r="BQ25" s="16"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="16"/>
+      <c r="BT25" s="16"/>
+      <c r="BU25" s="16"/>
+      <c r="BV25" s="16"/>
+      <c r="BW25" s="16"/>
+      <c r="BX25" s="16"/>
+      <c r="BY25" s="16"/>
+      <c r="BZ25" s="16"/>
+      <c r="CA25" s="16"/>
+      <c r="CB25" s="16"/>
+      <c r="CC25" s="16"/>
+      <c r="CD25" s="16"/>
+      <c r="CE25" s="16"/>
+      <c r="CF25" s="16"/>
+      <c r="CG25" s="16"/>
+      <c r="CH25" s="16"/>
+      <c r="CI25" s="16"/>
+      <c r="CJ25" s="16"/>
+      <c r="CK25" s="16"/>
+      <c r="CL25" s="16"/>
+      <c r="CM25" s="16"/>
+      <c r="CN25" s="16"/>
+      <c r="CO25" s="16"/>
+      <c r="CP25" s="16"/>
+      <c r="CQ25" s="16"/>
+      <c r="CR25" s="16"/>
+      <c r="CS25" s="16"/>
+      <c r="CT25" s="16"/>
+      <c r="CU25" s="16"/>
+      <c r="CV25" s="16"/>
+      <c r="CW25" s="16"/>
+      <c r="CX25" s="16"/>
+      <c r="CY25" s="16"/>
+      <c r="CZ25" s="16"/>
+      <c r="DA25" s="16"/>
+      <c r="DB25" s="16"/>
+      <c r="DC25" s="16"/>
+      <c r="DD25" s="16"/>
+      <c r="DE25" s="16"/>
+      <c r="DF25" s="16"/>
+      <c r="DG25" s="16"/>
+      <c r="DH25" s="16"/>
+      <c r="DI25" s="16"/>
+      <c r="DJ25" s="16"/>
+      <c r="DK25" s="16"/>
+      <c r="DL25" s="16"/>
+      <c r="DM25" s="16"/>
+      <c r="DN25" s="16"/>
+      <c r="DO25" s="16"/>
+      <c r="DP25" s="16"/>
+      <c r="DQ25" s="16"/>
+      <c r="DR25" s="16"/>
+      <c r="DS25" s="16"/>
+      <c r="DT25" s="16"/>
+      <c r="DU25" s="16"/>
+      <c r="DV25" s="16"/>
+      <c r="DW25" s="18"/>
+      <c r="FQ25" s="8"/>
+      <c r="FR25" s="8"/>
+      <c r="FS25" s="8"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" s="1"/>
+      <c r="FW25" s="1"/>
+      <c r="FX25" s="1"/>
+      <c r="FY25" s="1"/>
+    </row>
+    <row r="26" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM26" s="16"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="16"/>
+      <c r="BP26" s="16"/>
+      <c r="BQ26" s="16"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="16"/>
+      <c r="BT26" s="16"/>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="16"/>
+      <c r="BW26" s="16"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="16"/>
+      <c r="BZ26" s="16"/>
+      <c r="CA26" s="16"/>
+      <c r="CB26" s="16"/>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="16"/>
+      <c r="CE26" s="16"/>
+      <c r="CF26" s="16"/>
+      <c r="CG26" s="16"/>
+      <c r="CH26" s="16"/>
+      <c r="CI26" s="16"/>
+      <c r="CJ26" s="16"/>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
+      <c r="CV26" s="16"/>
+      <c r="CW26" s="16"/>
+      <c r="CX26" s="16"/>
+      <c r="CY26" s="16"/>
+      <c r="CZ26" s="16"/>
+      <c r="DA26" s="16"/>
+      <c r="DB26" s="16"/>
+      <c r="DC26" s="16"/>
+      <c r="DD26" s="16"/>
+      <c r="DE26" s="16"/>
+      <c r="DF26" s="16"/>
+      <c r="DG26" s="16"/>
+      <c r="DH26" s="16"/>
+      <c r="DI26" s="16"/>
+      <c r="DJ26" s="16"/>
+      <c r="DK26" s="16"/>
+      <c r="DL26" s="16"/>
+      <c r="DM26" s="16"/>
+      <c r="DN26" s="16"/>
+      <c r="DO26" s="16"/>
+      <c r="DP26" s="16"/>
+      <c r="DQ26" s="16"/>
+      <c r="DR26" s="16"/>
+      <c r="DS26" s="16"/>
+      <c r="DT26" s="16"/>
+      <c r="DU26" s="16"/>
+      <c r="DV26" s="16"/>
+      <c r="DW26" s="18"/>
+      <c r="FQ26" s="8"/>
+      <c r="FR26" s="8"/>
+      <c r="FS26" s="8"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+    </row>
+    <row r="27" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM27" s="16"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="16"/>
+      <c r="BP27" s="16"/>
+      <c r="BQ27" s="16"/>
+      <c r="BR27" s="16"/>
+      <c r="BS27" s="16"/>
+      <c r="BT27" s="16"/>
+      <c r="BU27" s="16"/>
+      <c r="BV27" s="16"/>
+      <c r="BW27" s="16"/>
+      <c r="BX27" s="16"/>
+      <c r="BY27" s="16"/>
+      <c r="BZ27" s="16"/>
+      <c r="CA27" s="16"/>
+      <c r="CB27" s="16"/>
+      <c r="CC27" s="16"/>
+      <c r="CD27" s="16"/>
+      <c r="CE27" s="16"/>
+      <c r="CF27" s="16"/>
+      <c r="CG27" s="16"/>
+      <c r="CH27" s="16"/>
+      <c r="CI27" s="16"/>
+      <c r="CJ27" s="16"/>
+      <c r="CK27" s="16"/>
+      <c r="CL27" s="16"/>
+      <c r="CM27" s="16"/>
+      <c r="CN27" s="16"/>
+      <c r="CO27" s="16"/>
+      <c r="CP27" s="16"/>
+      <c r="CQ27" s="16"/>
+      <c r="CR27" s="16"/>
+      <c r="CS27" s="16"/>
+      <c r="CT27" s="16"/>
+      <c r="CU27" s="16"/>
+      <c r="CV27" s="16"/>
+      <c r="CW27" s="16"/>
+      <c r="CX27" s="16"/>
+      <c r="CY27" s="16"/>
+      <c r="CZ27" s="16"/>
+      <c r="DA27" s="16"/>
+      <c r="DB27" s="16"/>
+      <c r="DC27" s="16"/>
+      <c r="DD27" s="16"/>
+      <c r="DE27" s="16"/>
+      <c r="DF27" s="16"/>
+      <c r="DG27" s="16"/>
+      <c r="DH27" s="16"/>
+      <c r="DI27" s="16"/>
+      <c r="DJ27" s="16"/>
+      <c r="DK27" s="16"/>
+      <c r="DL27" s="16"/>
+      <c r="DM27" s="16"/>
+      <c r="DN27" s="16"/>
+      <c r="DO27" s="16"/>
+      <c r="DP27" s="16"/>
+      <c r="DQ27" s="16"/>
+      <c r="DR27" s="16"/>
+      <c r="DS27" s="16"/>
+      <c r="DT27" s="16"/>
+      <c r="DU27" s="16"/>
+      <c r="DV27" s="16"/>
+      <c r="DW27" s="18"/>
+      <c r="FQ27" s="8"/>
+      <c r="FR27" s="8"/>
+      <c r="FS27" s="8"/>
+      <c r="FT27" s="1"/>
+      <c r="FU27" s="1"/>
+      <c r="FV27" s="1"/>
+      <c r="FW27" s="1"/>
+      <c r="FX27" s="1"/>
+      <c r="FY27" s="1"/>
+    </row>
+    <row r="28" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM28" s="16"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="16"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="16"/>
+      <c r="BR28" s="16"/>
+      <c r="BS28" s="16"/>
+      <c r="BT28" s="16"/>
+      <c r="BU28" s="16"/>
+      <c r="BV28" s="16"/>
+      <c r="BW28" s="16"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="16"/>
+      <c r="BZ28" s="16"/>
+      <c r="CA28" s="16"/>
+      <c r="CB28" s="16"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="16"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="16"/>
+      <c r="CG28" s="16"/>
+      <c r="CH28" s="16"/>
+      <c r="CI28" s="16"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="16"/>
+      <c r="CL28" s="16"/>
+      <c r="CM28" s="16"/>
+      <c r="CN28" s="16"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="16"/>
+      <c r="CV28" s="16"/>
+      <c r="CW28" s="16"/>
+      <c r="CX28" s="16"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="16"/>
+      <c r="DA28" s="16"/>
+      <c r="DB28" s="16"/>
+      <c r="DC28" s="16"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="16"/>
+      <c r="DF28" s="16"/>
+      <c r="DG28" s="16"/>
+      <c r="DH28" s="16"/>
+      <c r="DI28" s="16"/>
+      <c r="DJ28" s="16"/>
+      <c r="DK28" s="16"/>
+      <c r="DL28" s="16"/>
+      <c r="DM28" s="16"/>
+      <c r="DN28" s="16"/>
+      <c r="DO28" s="16"/>
+      <c r="DP28" s="16"/>
+      <c r="DQ28" s="16"/>
+      <c r="DR28" s="16"/>
+      <c r="DS28" s="16"/>
+      <c r="DT28" s="16"/>
+      <c r="DU28" s="16"/>
+      <c r="DV28" s="16"/>
+      <c r="DW28" s="18"/>
+      <c r="FQ28" s="8"/>
+      <c r="FR28" s="8"/>
+      <c r="FS28" s="8"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" s="1"/>
+      <c r="FW28" s="1"/>
+      <c r="FX28" s="1"/>
+      <c r="FY28" s="1"/>
+    </row>
+    <row r="29" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="16"/>
+      <c r="BP29" s="16"/>
+      <c r="BQ29" s="16"/>
+      <c r="BR29" s="16"/>
+      <c r="BS29" s="16"/>
+      <c r="BT29" s="16"/>
+      <c r="BU29" s="16"/>
+      <c r="BV29" s="16"/>
+      <c r="BW29" s="16"/>
+      <c r="BX29" s="16"/>
+      <c r="BY29" s="16"/>
+      <c r="BZ29" s="16"/>
+      <c r="CA29" s="16"/>
+      <c r="CB29" s="16"/>
+      <c r="CC29" s="16"/>
+      <c r="CD29" s="16"/>
+      <c r="CE29" s="16"/>
+      <c r="CF29" s="16"/>
+      <c r="CG29" s="16"/>
+      <c r="CH29" s="16"/>
+      <c r="CI29" s="16"/>
+      <c r="CJ29" s="16"/>
+      <c r="CK29" s="16"/>
+      <c r="CL29" s="16"/>
+      <c r="CM29" s="16"/>
+      <c r="CN29" s="16"/>
+      <c r="CO29" s="16"/>
+      <c r="CP29" s="16"/>
+      <c r="CQ29" s="16"/>
+      <c r="CR29" s="16"/>
+      <c r="CS29" s="16"/>
+      <c r="CT29" s="16"/>
+      <c r="CU29" s="16"/>
+      <c r="CV29" s="16"/>
+      <c r="CW29" s="16"/>
+      <c r="CX29" s="16"/>
+      <c r="CY29" s="16"/>
+      <c r="CZ29" s="16"/>
+      <c r="DA29" s="16"/>
+      <c r="DB29" s="16"/>
+      <c r="DC29" s="16"/>
+      <c r="DD29" s="16"/>
+      <c r="DE29" s="16"/>
+      <c r="DF29" s="16"/>
+      <c r="DG29" s="16"/>
+      <c r="DH29" s="16"/>
+      <c r="DI29" s="16"/>
+      <c r="DJ29" s="16"/>
+      <c r="DK29" s="16"/>
+      <c r="DL29" s="16"/>
+      <c r="DM29" s="16"/>
+      <c r="DN29" s="16"/>
+      <c r="DO29" s="16"/>
+      <c r="DP29" s="16"/>
+      <c r="DQ29" s="16"/>
+      <c r="DR29" s="16"/>
+      <c r="DS29" s="16"/>
+      <c r="DT29" s="16"/>
+      <c r="DU29" s="16"/>
+      <c r="DV29" s="16"/>
+      <c r="DW29" s="18"/>
+      <c r="FQ29" s="8"/>
+      <c r="FR29" s="8"/>
+      <c r="FS29" s="8"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" s="1"/>
+      <c r="FW29" s="1"/>
+      <c r="FX29" s="1"/>
+      <c r="FY29" s="1"/>
+    </row>
+    <row r="30" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="16"/>
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="16"/>
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="16"/>
+      <c r="CE30" s="16"/>
+      <c r="CF30" s="16"/>
+      <c r="CG30" s="16"/>
+      <c r="CH30" s="16"/>
+      <c r="CI30" s="16"/>
+      <c r="CJ30" s="16"/>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="16"/>
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="16"/>
+      <c r="CU30" s="16"/>
+      <c r="CV30" s="16"/>
+      <c r="CW30" s="16"/>
+      <c r="CX30" s="16"/>
+      <c r="CY30" s="16"/>
+      <c r="CZ30" s="16"/>
+      <c r="DA30" s="16"/>
+      <c r="DB30" s="16"/>
+      <c r="DC30" s="16"/>
+      <c r="DD30" s="16"/>
+      <c r="DE30" s="16"/>
+      <c r="DF30" s="16"/>
+      <c r="DG30" s="16"/>
+      <c r="DH30" s="16"/>
+      <c r="DI30" s="16"/>
+      <c r="DJ30" s="16"/>
+      <c r="DK30" s="16"/>
+      <c r="DL30" s="16"/>
+      <c r="DM30" s="16"/>
+      <c r="DN30" s="16"/>
+      <c r="DO30" s="16"/>
+      <c r="DP30" s="16"/>
+      <c r="DQ30" s="16"/>
+      <c r="DR30" s="16"/>
+      <c r="DS30" s="16"/>
+      <c r="DT30" s="16"/>
+      <c r="DU30" s="16"/>
+      <c r="DV30" s="16"/>
+      <c r="DW30" s="18"/>
+      <c r="FQ30" s="8"/>
+      <c r="FR30" s="8"/>
+      <c r="FS30" s="8"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" s="1"/>
+      <c r="FW30" s="1"/>
+      <c r="FX30" s="1"/>
+      <c r="FY30" s="1"/>
+    </row>
+    <row r="31" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16"/>
+      <c r="BP31" s="16"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="16"/>
+      <c r="BT31" s="16"/>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="16"/>
+      <c r="BW31" s="16"/>
+      <c r="BX31" s="16"/>
+      <c r="BY31" s="16"/>
+      <c r="BZ31" s="16"/>
+      <c r="CA31" s="16"/>
+      <c r="CB31" s="16"/>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="16"/>
+      <c r="CE31" s="16"/>
+      <c r="CF31" s="16"/>
+      <c r="CG31" s="16"/>
+      <c r="CH31" s="16"/>
+      <c r="CI31" s="16"/>
+      <c r="CJ31" s="16"/>
+      <c r="CK31" s="16"/>
+      <c r="CL31" s="16"/>
+      <c r="CM31" s="16"/>
+      <c r="CN31" s="16"/>
+      <c r="CO31" s="16"/>
+      <c r="CP31" s="16"/>
+      <c r="CQ31" s="16"/>
+      <c r="CR31" s="16"/>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="16"/>
+      <c r="CU31" s="16"/>
+      <c r="CV31" s="16"/>
+      <c r="CW31" s="16"/>
+      <c r="CX31" s="16"/>
+      <c r="CY31" s="16"/>
+      <c r="CZ31" s="16"/>
+      <c r="DA31" s="16"/>
+      <c r="DB31" s="16"/>
+      <c r="DC31" s="16"/>
+      <c r="DD31" s="16"/>
+      <c r="DE31" s="16"/>
+      <c r="DF31" s="16"/>
+      <c r="DG31" s="16"/>
+      <c r="DH31" s="16"/>
+      <c r="DI31" s="16"/>
+      <c r="DJ31" s="16"/>
+      <c r="DK31" s="16"/>
+      <c r="DL31" s="16"/>
+      <c r="DM31" s="16"/>
+      <c r="DN31" s="16"/>
+      <c r="DO31" s="16"/>
+      <c r="DP31" s="16"/>
+      <c r="DQ31" s="16"/>
+      <c r="DR31" s="16"/>
+      <c r="DS31" s="16"/>
+      <c r="DT31" s="16"/>
+      <c r="DU31" s="16"/>
+      <c r="DV31" s="16"/>
+      <c r="DW31" s="18"/>
+      <c r="FQ31" s="8"/>
+      <c r="FR31" s="8"/>
+      <c r="FS31" s="8"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" s="1"/>
+      <c r="FW31" s="1"/>
+      <c r="FX31" s="1"/>
+      <c r="FY31" s="1"/>
+    </row>
+    <row r="32" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="16"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="16"/>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="16"/>
+      <c r="BZ32" s="16"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="16"/>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="16"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="16"/>
+      <c r="CG32" s="16"/>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16"/>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="16"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
+      <c r="DK32" s="16"/>
+      <c r="DL32" s="16"/>
+      <c r="DM32" s="16"/>
+      <c r="DN32" s="16"/>
+      <c r="DO32" s="16"/>
+      <c r="DP32" s="16"/>
+      <c r="DQ32" s="16"/>
+      <c r="DR32" s="16"/>
+      <c r="DS32" s="16"/>
+      <c r="DT32" s="16"/>
+      <c r="DU32" s="16"/>
+      <c r="DV32" s="16"/>
+      <c r="DW32" s="18"/>
+      <c r="FQ32" s="8"/>
+      <c r="FR32" s="8"/>
+      <c r="FS32" s="8"/>
+      <c r="FT32" s="1"/>
+      <c r="FU32" s="1"/>
+      <c r="FV32" s="1"/>
+      <c r="FW32" s="1"/>
+      <c r="FX32" s="1"/>
+      <c r="FY32" s="1"/>
+    </row>
+    <row r="33" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="16"/>
+      <c r="BQ33" s="16"/>
+      <c r="BR33" s="16"/>
+      <c r="BS33" s="16"/>
+      <c r="BT33" s="16"/>
+      <c r="BU33" s="16"/>
+      <c r="BV33" s="16"/>
+      <c r="BW33" s="16"/>
+      <c r="BX33" s="16"/>
+      <c r="BY33" s="16"/>
+      <c r="BZ33" s="16"/>
+      <c r="CA33" s="16"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="16"/>
+      <c r="CG33" s="16"/>
+      <c r="CH33" s="16"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="16"/>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="16"/>
+      <c r="CV33" s="16"/>
+      <c r="CW33" s="16"/>
+      <c r="CX33" s="16"/>
+      <c r="CY33" s="16"/>
+      <c r="CZ33" s="16"/>
+      <c r="DA33" s="16"/>
+      <c r="DB33" s="16"/>
+      <c r="DC33" s="16"/>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
+      <c r="DF33" s="16"/>
+      <c r="DG33" s="16"/>
+      <c r="DH33" s="16"/>
+      <c r="DI33" s="16"/>
+      <c r="DJ33" s="16"/>
+      <c r="DK33" s="16"/>
+      <c r="DL33" s="16"/>
+      <c r="DM33" s="16"/>
+      <c r="DN33" s="16"/>
+      <c r="DO33" s="16"/>
+      <c r="DP33" s="16"/>
+      <c r="DQ33" s="16"/>
+      <c r="DR33" s="16"/>
+      <c r="DS33" s="16"/>
+      <c r="DT33" s="16"/>
+      <c r="DU33" s="16"/>
+      <c r="DV33" s="16"/>
+      <c r="DW33" s="18"/>
+      <c r="FQ33" s="8"/>
+      <c r="FR33" s="8"/>
+      <c r="FS33" s="8"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" s="1"/>
+      <c r="FW33" s="1"/>
+      <c r="FX33" s="1"/>
+      <c r="FY33" s="1"/>
+    </row>
+    <row r="34" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="16"/>
+      <c r="BP34" s="16"/>
+      <c r="BQ34" s="16"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="16"/>
+      <c r="BT34" s="16"/>
+      <c r="BU34" s="16"/>
+      <c r="BV34" s="16"/>
+      <c r="BW34" s="16"/>
+      <c r="BX34" s="16"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
+      <c r="CU34" s="16"/>
+      <c r="CV34" s="16"/>
+      <c r="CW34" s="16"/>
+      <c r="CX34" s="16"/>
+      <c r="CY34" s="16"/>
+      <c r="CZ34" s="16"/>
+      <c r="DA34" s="16"/>
+      <c r="DB34" s="16"/>
+      <c r="DC34" s="16"/>
+      <c r="DD34" s="16"/>
+      <c r="DE34" s="16"/>
+      <c r="DF34" s="16"/>
+      <c r="DG34" s="16"/>
+      <c r="DH34" s="16"/>
+      <c r="DI34" s="16"/>
+      <c r="DJ34" s="16"/>
+      <c r="DK34" s="16"/>
+      <c r="DL34" s="16"/>
+      <c r="DM34" s="16"/>
+      <c r="DN34" s="16"/>
+      <c r="DO34" s="16"/>
+      <c r="DP34" s="16"/>
+      <c r="DQ34" s="16"/>
+      <c r="DR34" s="16"/>
+      <c r="DS34" s="16"/>
+      <c r="DT34" s="16"/>
+      <c r="DU34" s="16"/>
+      <c r="DV34" s="16"/>
+      <c r="DW34" s="18"/>
+      <c r="FQ34" s="8"/>
+      <c r="FR34" s="8"/>
+      <c r="FS34" s="8"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" s="1"/>
+      <c r="FW34" s="1"/>
+      <c r="FX34" s="1"/>
+      <c r="FY34" s="1"/>
+    </row>
+    <row r="35" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="BU35" s="16"/>
+      <c r="BV35" s="16"/>
+      <c r="BW35" s="16"/>
+      <c r="BX35" s="16"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="16"/>
+      <c r="CW35" s="16"/>
+      <c r="CX35" s="16"/>
+      <c r="CY35" s="16"/>
+      <c r="CZ35" s="16"/>
+      <c r="DA35" s="16"/>
+      <c r="DB35" s="16"/>
+      <c r="DC35" s="16"/>
+      <c r="DD35" s="16"/>
+      <c r="DE35" s="16"/>
+      <c r="DF35" s="16"/>
+      <c r="DG35" s="16"/>
+      <c r="DH35" s="16"/>
+      <c r="DI35" s="16"/>
+      <c r="DJ35" s="16"/>
+      <c r="DK35" s="16"/>
+      <c r="DL35" s="16"/>
+      <c r="DM35" s="16"/>
+      <c r="DN35" s="16"/>
+      <c r="DO35" s="16"/>
+      <c r="DP35" s="16"/>
+      <c r="DQ35" s="16"/>
+      <c r="DR35" s="16"/>
+      <c r="DS35" s="16"/>
+      <c r="DT35" s="16"/>
+      <c r="DU35" s="16"/>
+      <c r="DV35" s="16"/>
+      <c r="DW35" s="18"/>
+      <c r="FQ35" s="8"/>
+      <c r="FR35" s="8"/>
+      <c r="FS35" s="8"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" s="1"/>
+      <c r="FW35" s="1"/>
+      <c r="FX35" s="1"/>
+      <c r="FY35" s="1"/>
+    </row>
+    <row r="36" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="16"/>
+      <c r="BP36" s="16"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="16"/>
+      <c r="BT36" s="16"/>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="16"/>
+      <c r="BW36" s="16"/>
+      <c r="BX36" s="16"/>
+      <c r="BY36" s="16"/>
+      <c r="BZ36" s="16"/>
+      <c r="CA36" s="16"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="16"/>
+      <c r="CD36" s="16"/>
+      <c r="CE36" s="16"/>
+      <c r="CF36" s="16"/>
+      <c r="CG36" s="16"/>
+      <c r="CH36" s="16"/>
+      <c r="CI36" s="16"/>
+      <c r="CJ36" s="16"/>
+      <c r="CK36" s="16"/>
+      <c r="CL36" s="16"/>
+      <c r="CM36" s="16"/>
+      <c r="CN36" s="16"/>
+      <c r="CO36" s="16"/>
+      <c r="CP36" s="16"/>
+      <c r="CQ36" s="16"/>
+      <c r="CR36" s="16"/>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="16"/>
+      <c r="CU36" s="16"/>
+      <c r="CV36" s="16"/>
+      <c r="CW36" s="16"/>
+      <c r="CX36" s="16"/>
+      <c r="CY36" s="16"/>
+      <c r="CZ36" s="16"/>
+      <c r="DA36" s="16"/>
+      <c r="DB36" s="16"/>
+      <c r="DC36" s="16"/>
+      <c r="DD36" s="16"/>
+      <c r="DE36" s="16"/>
+      <c r="DF36" s="16"/>
+      <c r="DG36" s="16"/>
+      <c r="DH36" s="16"/>
+      <c r="DI36" s="16"/>
+      <c r="DJ36" s="16"/>
+      <c r="DK36" s="16"/>
+      <c r="DL36" s="16"/>
+      <c r="DM36" s="16"/>
+      <c r="DN36" s="16"/>
+      <c r="DO36" s="16"/>
+      <c r="DP36" s="16"/>
+      <c r="DQ36" s="16"/>
+      <c r="DR36" s="16"/>
+      <c r="DS36" s="16"/>
+      <c r="DT36" s="16"/>
+      <c r="DU36" s="16"/>
+      <c r="DV36" s="16"/>
+      <c r="DW36" s="18"/>
+      <c r="FQ36" s="8"/>
+      <c r="FR36" s="8"/>
+      <c r="FS36" s="8"/>
+      <c r="FT36" s="1"/>
+      <c r="FU36" s="1"/>
+      <c r="FV36" s="1"/>
+      <c r="FW36" s="1"/>
+      <c r="FX36" s="1"/>
+      <c r="FY36" s="1"/>
+    </row>
+    <row r="37" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="16"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="16"/>
+      <c r="BT37" s="16"/>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="16"/>
+      <c r="BW37" s="16"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="16"/>
+      <c r="BZ37" s="16"/>
+      <c r="CA37" s="16"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="16"/>
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="16"/>
+      <c r="CG37" s="16"/>
+      <c r="CH37" s="16"/>
+      <c r="CI37" s="16"/>
+      <c r="CJ37" s="16"/>
+      <c r="CK37" s="16"/>
+      <c r="CL37" s="16"/>
+      <c r="CM37" s="16"/>
+      <c r="CN37" s="16"/>
+      <c r="CO37" s="16"/>
+      <c r="CP37" s="16"/>
+      <c r="CQ37" s="16"/>
+      <c r="CR37" s="16"/>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="16"/>
+      <c r="CU37" s="16"/>
+      <c r="CV37" s="16"/>
+      <c r="CW37" s="16"/>
+      <c r="CX37" s="16"/>
+      <c r="CY37" s="16"/>
+      <c r="CZ37" s="16"/>
+      <c r="DA37" s="16"/>
+      <c r="DB37" s="16"/>
+      <c r="DC37" s="16"/>
+      <c r="DD37" s="16"/>
+      <c r="DE37" s="16"/>
+      <c r="DF37" s="16"/>
+      <c r="DG37" s="16"/>
+      <c r="DH37" s="16"/>
+      <c r="DI37" s="16"/>
+      <c r="DJ37" s="16"/>
+      <c r="DK37" s="16"/>
+      <c r="DL37" s="16"/>
+      <c r="DM37" s="16"/>
+      <c r="DN37" s="16"/>
+      <c r="DO37" s="16"/>
+      <c r="DP37" s="16"/>
+      <c r="DQ37" s="16"/>
+      <c r="DR37" s="16"/>
+      <c r="DS37" s="16"/>
+      <c r="DT37" s="16"/>
+      <c r="DU37" s="16"/>
+      <c r="DV37" s="16"/>
+      <c r="DW37" s="18"/>
+      <c r="FQ37" s="8"/>
+      <c r="FR37" s="8"/>
+      <c r="FS37" s="8"/>
+      <c r="FT37" s="1"/>
+      <c r="FU37" s="1"/>
+      <c r="FV37" s="1"/>
+      <c r="FW37" s="1"/>
+      <c r="FX37" s="1"/>
+      <c r="FY37" s="1"/>
+    </row>
+    <row r="38" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="16"/>
+      <c r="BT38" s="16"/>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="16"/>
+      <c r="BW38" s="16"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="16"/>
+      <c r="BZ38" s="16"/>
+      <c r="CA38" s="16"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="16"/>
+      <c r="CG38" s="16"/>
+      <c r="CH38" s="16"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="16"/>
+      <c r="CN38" s="16"/>
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+      <c r="CU38" s="16"/>
+      <c r="CV38" s="16"/>
+      <c r="CW38" s="16"/>
+      <c r="CX38" s="16"/>
+      <c r="CY38" s="16"/>
+      <c r="CZ38" s="16"/>
+      <c r="DA38" s="16"/>
+      <c r="DB38" s="16"/>
+      <c r="DC38" s="16"/>
+      <c r="DD38" s="16"/>
+      <c r="DE38" s="16"/>
+      <c r="DF38" s="16"/>
+      <c r="DG38" s="16"/>
+      <c r="DH38" s="16"/>
+      <c r="DI38" s="16"/>
+      <c r="DJ38" s="16"/>
+      <c r="DK38" s="16"/>
+      <c r="DL38" s="16"/>
+      <c r="DM38" s="16"/>
+      <c r="DN38" s="16"/>
+      <c r="DO38" s="16"/>
+      <c r="DP38" s="16"/>
+      <c r="DQ38" s="16"/>
+      <c r="DR38" s="16"/>
+      <c r="DS38" s="16"/>
+      <c r="DT38" s="16"/>
+      <c r="DU38" s="16"/>
+      <c r="DV38" s="16"/>
+      <c r="DW38" s="18"/>
+      <c r="FQ38" s="8"/>
+      <c r="FR38" s="8"/>
+      <c r="FS38" s="8"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" s="1"/>
+      <c r="FW38" s="1"/>
+      <c r="FX38" s="1"/>
+      <c r="FY38" s="1"/>
+    </row>
+    <row r="39" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM39" s="16"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="16"/>
+      <c r="BP39" s="16"/>
+      <c r="BQ39" s="16"/>
+      <c r="BR39" s="16"/>
+      <c r="BS39" s="16"/>
+      <c r="BT39" s="16"/>
+      <c r="BU39" s="16"/>
+      <c r="BV39" s="16"/>
+      <c r="BW39" s="16"/>
+      <c r="BX39" s="16"/>
+      <c r="BY39" s="16"/>
+      <c r="BZ39" s="16"/>
+      <c r="CA39" s="16"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="16"/>
+      <c r="CF39" s="16"/>
+      <c r="CG39" s="16"/>
+      <c r="CH39" s="16"/>
+      <c r="CI39" s="16"/>
+      <c r="CJ39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="16"/>
+      <c r="CM39" s="16"/>
+      <c r="CN39" s="16"/>
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+      <c r="CU39" s="16"/>
+      <c r="CV39" s="16"/>
+      <c r="CW39" s="16"/>
+      <c r="CX39" s="16"/>
+      <c r="CY39" s="16"/>
+      <c r="CZ39" s="16"/>
+      <c r="DA39" s="16"/>
+      <c r="DB39" s="16"/>
+      <c r="DC39" s="16"/>
+      <c r="DD39" s="16"/>
+      <c r="DE39" s="16"/>
+      <c r="DF39" s="16"/>
+      <c r="DG39" s="16"/>
+      <c r="DH39" s="16"/>
+      <c r="DI39" s="16"/>
+      <c r="DJ39" s="16"/>
+      <c r="DK39" s="16"/>
+      <c r="DL39" s="16"/>
+      <c r="DM39" s="16"/>
+      <c r="DN39" s="16"/>
+      <c r="DO39" s="16"/>
+      <c r="DP39" s="16"/>
+      <c r="DQ39" s="16"/>
+      <c r="DR39" s="16"/>
+      <c r="DS39" s="16"/>
+      <c r="DT39" s="16"/>
+      <c r="DU39" s="16"/>
+      <c r="DV39" s="16"/>
+      <c r="DW39" s="18"/>
+      <c r="FQ39" s="8"/>
+      <c r="FR39" s="8"/>
+      <c r="FS39" s="8"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" s="1"/>
+      <c r="FW39" s="1"/>
+      <c r="FX39" s="1"/>
+      <c r="FY39" s="1"/>
+    </row>
+    <row r="40" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>369</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>269</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>180</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>121</v>
+      </c>
+      <c r="AF40">
+        <v>8</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40">
+        <v>109</v>
+      </c>
+      <c r="AM40">
+        <v>9</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>220</v>
+      </c>
+      <c r="AT40">
+        <v>5</v>
+      </c>
+      <c r="AY40">
+        <v>3</v>
+      </c>
+      <c r="AZ40">
+        <v>210</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BF40">
+        <v>4</v>
+      </c>
+      <c r="BG40">
+        <v>247</v>
+      </c>
+      <c r="BH40">
+        <v>6</v>
+      </c>
+      <c r="BM40" s="16"/>
+      <c r="BN40" s="16"/>
+      <c r="BO40" s="16"/>
+      <c r="BP40" s="16"/>
+      <c r="BQ40" s="16"/>
+      <c r="BR40" s="16"/>
+      <c r="BS40" s="16"/>
+      <c r="BT40" s="16"/>
+      <c r="BU40" s="16"/>
+      <c r="BV40" s="16"/>
+      <c r="BW40" s="16"/>
+      <c r="BX40" s="16"/>
+      <c r="BY40" s="16"/>
+      <c r="BZ40" s="16"/>
+      <c r="CA40" s="16"/>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="16"/>
+      <c r="CD40" s="16"/>
+      <c r="CE40" s="16"/>
+      <c r="CF40" s="16"/>
+      <c r="CG40" s="16"/>
+      <c r="CH40" s="16"/>
+      <c r="CI40" s="16"/>
+      <c r="CJ40" s="16"/>
+      <c r="CK40" s="16"/>
+      <c r="CL40" s="16"/>
+      <c r="CM40" s="16"/>
+      <c r="CN40" s="16"/>
+      <c r="CO40" s="16"/>
+      <c r="CP40" s="16"/>
+      <c r="CQ40" s="16"/>
+      <c r="CR40" s="16"/>
+      <c r="CS40" s="16"/>
+      <c r="CT40" s="16"/>
+      <c r="CU40" s="16"/>
+      <c r="CV40" s="16"/>
+      <c r="CW40" s="16"/>
+      <c r="CX40" s="16"/>
+      <c r="CY40" s="16"/>
+      <c r="CZ40" s="16"/>
+      <c r="DA40" s="16"/>
+      <c r="DB40" s="16"/>
+      <c r="DC40" s="16"/>
+      <c r="DD40" s="16"/>
+      <c r="DE40" s="16"/>
+      <c r="DF40" s="16"/>
+      <c r="DG40" s="16"/>
+      <c r="DH40" s="16"/>
+      <c r="DI40" s="16"/>
+      <c r="DJ40" s="16"/>
+      <c r="DK40" s="16"/>
+      <c r="DL40" s="16"/>
+      <c r="DM40" s="16"/>
+      <c r="DN40" s="16"/>
+      <c r="DO40" s="16"/>
+      <c r="DP40" s="16"/>
+      <c r="DQ40" s="16"/>
+      <c r="DR40" s="16"/>
+      <c r="DS40" s="16"/>
+      <c r="DT40" s="16"/>
+      <c r="DU40" s="16"/>
+      <c r="DV40" s="16"/>
+      <c r="DW40" s="18"/>
+      <c r="FQ40" s="8"/>
+      <c r="FR40" s="8"/>
+      <c r="FS40" s="8"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" s="1"/>
+      <c r="FW40" s="1"/>
+      <c r="FX40" s="1"/>
+      <c r="FY40" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E1901A-E14E-BC4B-8D36-1554360219AA}">
+  <dimension ref="A1:FY40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="64" max="64" width="10.83203125" style="15"/>
+    <col min="127" max="127" width="10.83203125" style="15"/>
+    <col min="128" max="175" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="17"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="7"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="7"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+    </row>
+    <row r="2" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>144</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2">
+        <v>142</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2">
+        <v>175</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR2">
+        <v>5</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>97</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY2">
+        <v>4</v>
+      </c>
+      <c r="AZ2">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2">
+        <v>182</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK2">
+        <v>3</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
+      <c r="DO2" s="16"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="16"/>
+      <c r="DV2" s="16"/>
+      <c r="DW2" s="18"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="1"/>
+      <c r="FU2" s="1"/>
+      <c r="FV2" s="1"/>
+      <c r="FW2" s="1"/>
+      <c r="FX2" s="1"/>
+      <c r="FY2" s="1"/>
+    </row>
+    <row r="3" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="16"/>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16"/>
+      <c r="CX3" s="16"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="16"/>
+      <c r="DA3" s="16"/>
+      <c r="DB3" s="16"/>
+      <c r="DC3" s="16"/>
+      <c r="DD3" s="16"/>
+      <c r="DE3" s="16"/>
+      <c r="DF3" s="16"/>
+      <c r="DG3" s="16"/>
+      <c r="DH3" s="16"/>
+      <c r="DI3" s="16"/>
+      <c r="DJ3" s="16"/>
+      <c r="DK3" s="16"/>
+      <c r="DL3" s="16"/>
+      <c r="DM3" s="16"/>
+      <c r="DN3" s="16"/>
+      <c r="DO3" s="16"/>
+      <c r="DP3" s="16"/>
+      <c r="DQ3" s="16"/>
+      <c r="DR3" s="16"/>
+      <c r="DS3" s="16"/>
+      <c r="DT3" s="16"/>
+      <c r="DU3" s="16"/>
+      <c r="DV3" s="16"/>
+      <c r="DW3" s="18"/>
+      <c r="FQ3" s="8"/>
+      <c r="FR3" s="8"/>
+      <c r="FS3" s="8"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+    </row>
+    <row r="4" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="16"/>
+      <c r="CL4" s="16"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="16"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
+      <c r="CX4" s="16"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="16"/>
+      <c r="DA4" s="16"/>
+      <c r="DB4" s="16"/>
+      <c r="DC4" s="16"/>
+      <c r="DD4" s="16"/>
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="16"/>
+      <c r="DG4" s="16"/>
+      <c r="DH4" s="16"/>
+      <c r="DI4" s="16"/>
+      <c r="DJ4" s="16"/>
+      <c r="DK4" s="16"/>
+      <c r="DL4" s="16"/>
+      <c r="DM4" s="16"/>
+      <c r="DN4" s="16"/>
+      <c r="DO4" s="16"/>
+      <c r="DP4" s="16"/>
+      <c r="DQ4" s="16"/>
+      <c r="DR4" s="16"/>
+      <c r="DS4" s="16"/>
+      <c r="DT4" s="16"/>
+      <c r="DU4" s="16"/>
+      <c r="DV4" s="16"/>
+      <c r="DW4" s="18"/>
+      <c r="FQ4" s="8"/>
+      <c r="FR4" s="8"/>
+      <c r="FS4" s="8"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+    </row>
+    <row r="5" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
+      <c r="DD5" s="16"/>
+      <c r="DE5" s="16"/>
+      <c r="DF5" s="16"/>
+      <c r="DG5" s="16"/>
+      <c r="DH5" s="16"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="16"/>
+      <c r="DO5" s="16"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="16"/>
+      <c r="DR5" s="16"/>
+      <c r="DS5" s="16"/>
+      <c r="DT5" s="16"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="18"/>
+      <c r="FQ5" s="8"/>
+      <c r="FR5" s="8"/>
+      <c r="FS5" s="8"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+    </row>
+    <row r="6" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="16"/>
+      <c r="BS6" s="16"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="16"/>
+      <c r="BW6" s="16"/>
+      <c r="BX6" s="16"/>
+      <c r="BY6" s="16"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
+      <c r="CX6" s="16"/>
+      <c r="CY6" s="16"/>
+      <c r="CZ6" s="16"/>
+      <c r="DA6" s="16"/>
+      <c r="DB6" s="16"/>
+      <c r="DC6" s="16"/>
+      <c r="DD6" s="16"/>
+      <c r="DE6" s="16"/>
+      <c r="DF6" s="16"/>
+      <c r="DG6" s="16"/>
+      <c r="DH6" s="16"/>
+      <c r="DI6" s="16"/>
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="16"/>
+      <c r="DL6" s="16"/>
+      <c r="DM6" s="16"/>
+      <c r="DN6" s="16"/>
+      <c r="DO6" s="16"/>
+      <c r="DP6" s="16"/>
+      <c r="DQ6" s="16"/>
+      <c r="DR6" s="16"/>
+      <c r="DS6" s="16"/>
+      <c r="DT6" s="16"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="18"/>
+      <c r="FQ6" s="8"/>
+      <c r="FR6" s="8"/>
+      <c r="FS6" s="8"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" s="1"/>
+      <c r="FW6" s="1"/>
+      <c r="FX6" s="1"/>
+      <c r="FY6" s="1"/>
+    </row>
+    <row r="7" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16"/>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16"/>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16"/>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="16"/>
+      <c r="CU7" s="16"/>
+      <c r="CV7" s="16"/>
+      <c r="CW7" s="16"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
+      <c r="DA7" s="16"/>
+      <c r="DB7" s="16"/>
+      <c r="DC7" s="16"/>
+      <c r="DD7" s="16"/>
+      <c r="DE7" s="16"/>
+      <c r="DF7" s="16"/>
+      <c r="DG7" s="16"/>
+      <c r="DH7" s="16"/>
+      <c r="DI7" s="16"/>
+      <c r="DJ7" s="16"/>
+      <c r="DK7" s="16"/>
+      <c r="DL7" s="16"/>
+      <c r="DM7" s="16"/>
+      <c r="DN7" s="16"/>
+      <c r="DO7" s="16"/>
+      <c r="DP7" s="16"/>
+      <c r="DQ7" s="16"/>
+      <c r="DR7" s="16"/>
+      <c r="DS7" s="16"/>
+      <c r="DT7" s="16"/>
+      <c r="DU7" s="16"/>
+      <c r="DV7" s="16"/>
+      <c r="DW7" s="18"/>
+      <c r="FQ7" s="8"/>
+      <c r="FR7" s="8"/>
+      <c r="FS7" s="8"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" s="1"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="1"/>
+      <c r="FY7" s="1"/>
+    </row>
+    <row r="8" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="16"/>
+      <c r="CP8" s="16"/>
+      <c r="CQ8" s="16"/>
+      <c r="CR8" s="16"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="16"/>
+      <c r="CU8" s="16"/>
+      <c r="CV8" s="16"/>
+      <c r="CW8" s="16"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
+      <c r="DA8" s="16"/>
+      <c r="DB8" s="16"/>
+      <c r="DC8" s="16"/>
+      <c r="DD8" s="16"/>
+      <c r="DE8" s="16"/>
+      <c r="DF8" s="16"/>
+      <c r="DG8" s="16"/>
+      <c r="DH8" s="16"/>
+      <c r="DI8" s="16"/>
+      <c r="DJ8" s="16"/>
+      <c r="DK8" s="16"/>
+      <c r="DL8" s="16"/>
+      <c r="DM8" s="16"/>
+      <c r="DN8" s="16"/>
+      <c r="DO8" s="16"/>
+      <c r="DP8" s="16"/>
+      <c r="DQ8" s="16"/>
+      <c r="DR8" s="16"/>
+      <c r="DS8" s="16"/>
+      <c r="DT8" s="16"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="18"/>
+      <c r="EP8" s="8"/>
+      <c r="EQ8" s="8"/>
+      <c r="FR8" s="8"/>
+      <c r="FS8" s="8"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="1"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+    </row>
+    <row r="9" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
+      <c r="DA9" s="16"/>
+      <c r="DB9" s="16"/>
+      <c r="DC9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16"/>
+      <c r="DF9" s="16"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
+      <c r="DI9" s="16"/>
+      <c r="DJ9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16"/>
+      <c r="DM9" s="16"/>
+      <c r="DN9" s="16"/>
+      <c r="DO9" s="16"/>
+      <c r="DP9" s="16"/>
+      <c r="DQ9" s="16"/>
+      <c r="DR9" s="16"/>
+      <c r="DS9" s="16"/>
+      <c r="DT9" s="16"/>
+      <c r="DU9" s="16"/>
+      <c r="DV9" s="16"/>
+      <c r="DW9" s="18"/>
+      <c r="FQ9" s="8"/>
+      <c r="FR9" s="8"/>
+      <c r="FS9" s="8"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+    </row>
+    <row r="10" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
+      <c r="CV10" s="16"/>
+      <c r="CW10" s="16"/>
+      <c r="CX10" s="16"/>
+      <c r="CY10" s="16"/>
+      <c r="CZ10" s="16"/>
+      <c r="DA10" s="16"/>
+      <c r="DB10" s="16"/>
+      <c r="DC10" s="16"/>
+      <c r="DD10" s="16"/>
+      <c r="DE10" s="16"/>
+      <c r="DF10" s="16"/>
+      <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
+      <c r="DI10" s="16"/>
+      <c r="DJ10" s="16"/>
+      <c r="DK10" s="16"/>
+      <c r="DL10" s="16"/>
+      <c r="DM10" s="16"/>
+      <c r="DN10" s="16"/>
+      <c r="DO10" s="16"/>
+      <c r="DP10" s="16"/>
+      <c r="DQ10" s="16"/>
+      <c r="DR10" s="16"/>
+      <c r="DS10" s="16"/>
+      <c r="DT10" s="16"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="16"/>
+      <c r="DW10" s="18"/>
+      <c r="FQ10" s="8"/>
+      <c r="FR10" s="8"/>
+      <c r="FS10" s="8"/>
+      <c r="FT10" s="1"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" s="1"/>
+      <c r="FW10" s="1"/>
+      <c r="FX10" s="1"/>
+      <c r="FY10" s="1"/>
+    </row>
+    <row r="11" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="16"/>
+      <c r="CP11" s="16"/>
+      <c r="CQ11" s="16"/>
+      <c r="CR11" s="16"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="16"/>
+      <c r="CU11" s="16"/>
+      <c r="CV11" s="16"/>
+      <c r="CW11" s="16"/>
+      <c r="CX11" s="16"/>
+      <c r="CY11" s="16"/>
+      <c r="CZ11" s="16"/>
+      <c r="DA11" s="16"/>
+      <c r="DB11" s="16"/>
+      <c r="DC11" s="16"/>
+      <c r="DD11" s="16"/>
+      <c r="DE11" s="16"/>
+      <c r="DF11" s="16"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
+      <c r="DI11" s="16"/>
+      <c r="DJ11" s="16"/>
+      <c r="DK11" s="16"/>
+      <c r="DL11" s="16"/>
+      <c r="DM11" s="16"/>
+      <c r="DN11" s="16"/>
+      <c r="DO11" s="16"/>
+      <c r="DP11" s="16"/>
+      <c r="DQ11" s="16"/>
+      <c r="DR11" s="16"/>
+      <c r="DS11" s="16"/>
+      <c r="DT11" s="16"/>
+      <c r="DU11" s="16"/>
+      <c r="DV11" s="16"/>
+      <c r="DW11" s="18"/>
+      <c r="FQ11" s="8"/>
+      <c r="FR11" s="8"/>
+      <c r="FS11" s="8"/>
+      <c r="FT11" s="1"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" s="1"/>
+      <c r="FW11" s="1"/>
+      <c r="FX11" s="1"/>
+      <c r="FY11" s="1"/>
+    </row>
+    <row r="12" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
+      <c r="CV12" s="16"/>
+      <c r="CW12" s="16"/>
+      <c r="CX12" s="16"/>
+      <c r="CY12" s="16"/>
+      <c r="CZ12" s="16"/>
+      <c r="DA12" s="16"/>
+      <c r="DB12" s="16"/>
+      <c r="DC12" s="16"/>
+      <c r="DD12" s="16"/>
+      <c r="DE12" s="16"/>
+      <c r="DF12" s="16"/>
+      <c r="DG12" s="16"/>
+      <c r="DH12" s="16"/>
+      <c r="DI12" s="16"/>
+      <c r="DJ12" s="16"/>
+      <c r="DK12" s="16"/>
+      <c r="DL12" s="16"/>
+      <c r="DM12" s="16"/>
+      <c r="DN12" s="16"/>
+      <c r="DO12" s="16"/>
+      <c r="DP12" s="16"/>
+      <c r="DQ12" s="16"/>
+      <c r="DR12" s="16"/>
+      <c r="DS12" s="16"/>
+      <c r="DT12" s="16"/>
+      <c r="DU12" s="16"/>
+      <c r="DV12" s="16"/>
+      <c r="DW12" s="18"/>
+      <c r="FQ12" s="8"/>
+      <c r="FR12" s="8"/>
+      <c r="FS12" s="8"/>
+      <c r="FT12" s="1"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" s="1"/>
+      <c r="FW12" s="1"/>
+      <c r="FX12" s="1"/>
+      <c r="FY12" s="1"/>
+    </row>
+    <row r="13" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="16"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="16"/>
+      <c r="CP13" s="16"/>
+      <c r="CQ13" s="16"/>
+      <c r="CR13" s="16"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="16"/>
+      <c r="CU13" s="16"/>
+      <c r="CV13" s="16"/>
+      <c r="CW13" s="16"/>
+      <c r="CX13" s="16"/>
+      <c r="CY13" s="16"/>
+      <c r="CZ13" s="16"/>
+      <c r="DA13" s="16"/>
+      <c r="DB13" s="16"/>
+      <c r="DC13" s="16"/>
+      <c r="DD13" s="16"/>
+      <c r="DE13" s="16"/>
+      <c r="DF13" s="16"/>
+      <c r="DG13" s="16"/>
+      <c r="DH13" s="16"/>
+      <c r="DI13" s="16"/>
+      <c r="DJ13" s="16"/>
+      <c r="DK13" s="16"/>
+      <c r="DL13" s="16"/>
+      <c r="DM13" s="16"/>
+      <c r="DN13" s="16"/>
+      <c r="DO13" s="16"/>
+      <c r="DP13" s="16"/>
+      <c r="DQ13" s="16"/>
+      <c r="DR13" s="16"/>
+      <c r="DS13" s="16"/>
+      <c r="DT13" s="16"/>
+      <c r="DU13" s="16"/>
+      <c r="DV13" s="16"/>
+      <c r="DW13" s="18"/>
+      <c r="FQ13" s="8"/>
+      <c r="FR13" s="8"/>
+      <c r="FS13" s="8"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" s="1"/>
+      <c r="FW13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="FY13" s="1"/>
+    </row>
+    <row r="14" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
+      <c r="DA14" s="16"/>
+      <c r="DB14" s="16"/>
+      <c r="DC14" s="16"/>
+      <c r="DD14" s="16"/>
+      <c r="DE14" s="16"/>
+      <c r="DF14" s="16"/>
+      <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
+      <c r="DI14" s="16"/>
+      <c r="DJ14" s="16"/>
+      <c r="DK14" s="16"/>
+      <c r="DL14" s="16"/>
+      <c r="DM14" s="16"/>
+      <c r="DN14" s="16"/>
+      <c r="DO14" s="16"/>
+      <c r="DP14" s="16"/>
+      <c r="DQ14" s="16"/>
+      <c r="DR14" s="16"/>
+      <c r="DS14" s="16"/>
+      <c r="DT14" s="16"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="18"/>
+      <c r="FQ14" s="8"/>
+      <c r="FR14" s="8"/>
+      <c r="FS14" s="8"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" s="1"/>
+      <c r="FW14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="FY14" s="1"/>
+    </row>
+    <row r="15" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16"/>
+      <c r="BR15" s="16"/>
+      <c r="BS15" s="16"/>
+      <c r="BT15" s="16"/>
+      <c r="BU15" s="16"/>
+      <c r="BV15" s="16"/>
+      <c r="BW15" s="16"/>
+      <c r="BX15" s="16"/>
+      <c r="BY15" s="16"/>
+      <c r="BZ15" s="16"/>
+      <c r="CA15" s="16"/>
+      <c r="CB15" s="16"/>
+      <c r="CC15" s="16"/>
+      <c r="CD15" s="16"/>
+      <c r="CE15" s="16"/>
+      <c r="CF15" s="16"/>
+      <c r="CG15" s="16"/>
+      <c r="CH15" s="16"/>
+      <c r="CI15" s="16"/>
+      <c r="CJ15" s="16"/>
+      <c r="CK15" s="16"/>
+      <c r="CL15" s="16"/>
+      <c r="CM15" s="16"/>
+      <c r="CN15" s="16"/>
+      <c r="CO15" s="16"/>
+      <c r="CP15" s="16"/>
+      <c r="CQ15" s="16"/>
+      <c r="CR15" s="16"/>
+      <c r="CS15" s="16"/>
+      <c r="CT15" s="16"/>
+      <c r="CU15" s="16"/>
+      <c r="CV15" s="16"/>
+      <c r="CW15" s="16"/>
+      <c r="CX15" s="16"/>
+      <c r="CY15" s="16"/>
+      <c r="CZ15" s="16"/>
+      <c r="DA15" s="16"/>
+      <c r="DB15" s="16"/>
+      <c r="DC15" s="16"/>
+      <c r="DD15" s="16"/>
+      <c r="DE15" s="16"/>
+      <c r="DF15" s="16"/>
+      <c r="DG15" s="16"/>
+      <c r="DH15" s="16"/>
+      <c r="DI15" s="16"/>
+      <c r="DJ15" s="16"/>
+      <c r="DK15" s="16"/>
+      <c r="DL15" s="16"/>
+      <c r="DM15" s="16"/>
+      <c r="DN15" s="16"/>
+      <c r="DO15" s="16"/>
+      <c r="DP15" s="16"/>
+      <c r="DQ15" s="16"/>
+      <c r="DR15" s="16"/>
+      <c r="DS15" s="16"/>
+      <c r="DT15" s="16"/>
+      <c r="DU15" s="16"/>
+      <c r="DV15" s="16"/>
+      <c r="DW15" s="18"/>
+      <c r="FQ15" s="8"/>
+      <c r="FR15" s="8"/>
+      <c r="FS15" s="8"/>
+      <c r="FT15" s="1"/>
+      <c r="FU15" s="1"/>
+      <c r="FV15" s="1"/>
+      <c r="FW15" s="1"/>
+      <c r="FX15" s="1"/>
+      <c r="FY15" s="1"/>
+    </row>
+    <row r="16" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="16"/>
+      <c r="BS16" s="16"/>
+      <c r="BT16" s="16"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="16"/>
+      <c r="BZ16" s="16"/>
+      <c r="CA16" s="16"/>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="16"/>
+      <c r="CD16" s="16"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="16"/>
+      <c r="CG16" s="16"/>
+      <c r="CH16" s="16"/>
+      <c r="CI16" s="16"/>
+      <c r="CJ16" s="16"/>
+      <c r="CK16" s="16"/>
+      <c r="CL16" s="16"/>
+      <c r="CM16" s="16"/>
+      <c r="CN16" s="16"/>
+      <c r="CO16" s="16"/>
+      <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
+      <c r="CR16" s="16"/>
+      <c r="CS16" s="16"/>
+      <c r="CT16" s="16"/>
+      <c r="CU16" s="16"/>
+      <c r="CV16" s="16"/>
+      <c r="CW16" s="16"/>
+      <c r="CX16" s="16"/>
+      <c r="CY16" s="16"/>
+      <c r="CZ16" s="16"/>
+      <c r="DA16" s="16"/>
+      <c r="DB16" s="16"/>
+      <c r="DC16" s="16"/>
+      <c r="DD16" s="16"/>
+      <c r="DE16" s="16"/>
+      <c r="DF16" s="16"/>
+      <c r="DG16" s="16"/>
+      <c r="DH16" s="16"/>
+      <c r="DI16" s="16"/>
+      <c r="DJ16" s="16"/>
+      <c r="DK16" s="16"/>
+      <c r="DL16" s="16"/>
+      <c r="DM16" s="16"/>
+      <c r="DN16" s="16"/>
+      <c r="DO16" s="16"/>
+      <c r="DP16" s="16"/>
+      <c r="DQ16" s="16"/>
+      <c r="DR16" s="16"/>
+      <c r="DS16" s="16"/>
+      <c r="DT16" s="16"/>
+      <c r="DU16" s="16"/>
+      <c r="DV16" s="16"/>
+      <c r="DW16" s="18"/>
+      <c r="FQ16" s="8"/>
+      <c r="FR16" s="8"/>
+      <c r="FS16" s="8"/>
+      <c r="FT16" s="1"/>
+      <c r="FU16" s="1"/>
+      <c r="FV16" s="1"/>
+      <c r="FW16" s="1"/>
+      <c r="FX16" s="1"/>
+      <c r="FY16" s="1"/>
+    </row>
+    <row r="17" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="16"/>
+      <c r="BS17" s="16"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="16"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+      <c r="BY17" s="16"/>
+      <c r="BZ17" s="16"/>
+      <c r="CA17" s="16"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="16"/>
+      <c r="CD17" s="16"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="16"/>
+      <c r="CG17" s="16"/>
+      <c r="CH17" s="16"/>
+      <c r="CI17" s="16"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="16"/>
+      <c r="CL17" s="16"/>
+      <c r="CM17" s="16"/>
+      <c r="CN17" s="16"/>
+      <c r="CO17" s="16"/>
+      <c r="CP17" s="16"/>
+      <c r="CQ17" s="16"/>
+      <c r="CR17" s="16"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="16"/>
+      <c r="CU17" s="16"/>
+      <c r="CV17" s="16"/>
+      <c r="CW17" s="16"/>
+      <c r="CX17" s="16"/>
+      <c r="CY17" s="16"/>
+      <c r="CZ17" s="16"/>
+      <c r="DA17" s="16"/>
+      <c r="DB17" s="16"/>
+      <c r="DC17" s="16"/>
+      <c r="DD17" s="16"/>
+      <c r="DE17" s="16"/>
+      <c r="DF17" s="16"/>
+      <c r="DG17" s="16"/>
+      <c r="DH17" s="16"/>
+      <c r="DI17" s="16"/>
+      <c r="DJ17" s="16"/>
+      <c r="DK17" s="16"/>
+      <c r="DL17" s="16"/>
+      <c r="DM17" s="16"/>
+      <c r="DN17" s="16"/>
+      <c r="DO17" s="16"/>
+      <c r="DP17" s="16"/>
+      <c r="DQ17" s="16"/>
+      <c r="DR17" s="16"/>
+      <c r="DS17" s="16"/>
+      <c r="DT17" s="16"/>
+      <c r="DU17" s="16"/>
+      <c r="DV17" s="16"/>
+      <c r="DW17" s="18"/>
+      <c r="EG17" s="8"/>
+      <c r="FQ17" s="8"/>
+      <c r="FR17" s="8"/>
+      <c r="FS17" s="8"/>
+      <c r="FT17" s="1"/>
+      <c r="FU17" s="1"/>
+      <c r="FV17" s="1"/>
+      <c r="FW17" s="1"/>
+      <c r="FX17" s="1"/>
+      <c r="FY17" s="1"/>
+    </row>
+    <row r="18" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="16"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+      <c r="CG18" s="16"/>
+      <c r="CH18" s="16"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
+      <c r="CN18" s="16"/>
+      <c r="CO18" s="16"/>
+      <c r="CP18" s="16"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
+      <c r="CW18" s="16"/>
+      <c r="CX18" s="16"/>
+      <c r="CY18" s="16"/>
+      <c r="CZ18" s="16"/>
+      <c r="DA18" s="16"/>
+      <c r="DB18" s="16"/>
+      <c r="DC18" s="16"/>
+      <c r="DD18" s="16"/>
+      <c r="DE18" s="16"/>
+      <c r="DF18" s="16"/>
+      <c r="DG18" s="16"/>
+      <c r="DH18" s="16"/>
+      <c r="DI18" s="16"/>
+      <c r="DJ18" s="16"/>
+      <c r="DK18" s="16"/>
+      <c r="DL18" s="16"/>
+      <c r="DM18" s="16"/>
+      <c r="DN18" s="16"/>
+      <c r="DO18" s="16"/>
+      <c r="DP18" s="16"/>
+      <c r="DQ18" s="16"/>
+      <c r="DR18" s="16"/>
+      <c r="DS18" s="16"/>
+      <c r="DT18" s="16"/>
+      <c r="DU18" s="16"/>
+      <c r="DV18" s="16"/>
+      <c r="DW18" s="18"/>
+      <c r="FQ18" s="8"/>
+      <c r="FR18" s="8"/>
+      <c r="FS18" s="8"/>
+      <c r="FT18" s="1"/>
+      <c r="FU18" s="1"/>
+      <c r="FV18" s="1"/>
+      <c r="FW18" s="1"/>
+      <c r="FX18" s="1"/>
+      <c r="FY18" s="1"/>
+    </row>
+    <row r="19" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="16"/>
+      <c r="BS19" s="16"/>
+      <c r="BT19" s="16"/>
+      <c r="BU19" s="16"/>
+      <c r="BV19" s="16"/>
+      <c r="BW19" s="16"/>
+      <c r="BX19" s="16"/>
+      <c r="BY19" s="16"/>
+      <c r="BZ19" s="16"/>
+      <c r="CA19" s="16"/>
+      <c r="CB19" s="16"/>
+      <c r="CC19" s="16"/>
+      <c r="CD19" s="16"/>
+      <c r="CE19" s="16"/>
+      <c r="CF19" s="16"/>
+      <c r="CG19" s="16"/>
+      <c r="CH19" s="16"/>
+      <c r="CI19" s="16"/>
+      <c r="CJ19" s="16"/>
+      <c r="CK19" s="16"/>
+      <c r="CL19" s="16"/>
+      <c r="CM19" s="16"/>
+      <c r="CN19" s="16"/>
+      <c r="CO19" s="16"/>
+      <c r="CP19" s="16"/>
+      <c r="CQ19" s="16"/>
+      <c r="CR19" s="16"/>
+      <c r="CS19" s="16"/>
+      <c r="CT19" s="16"/>
+      <c r="CU19" s="16"/>
+      <c r="CV19" s="16"/>
+      <c r="CW19" s="16"/>
+      <c r="CX19" s="16"/>
+      <c r="CY19" s="16"/>
+      <c r="CZ19" s="16"/>
+      <c r="DA19" s="16"/>
+      <c r="DB19" s="16"/>
+      <c r="DC19" s="16"/>
+      <c r="DD19" s="16"/>
+      <c r="DE19" s="16"/>
+      <c r="DF19" s="16"/>
+      <c r="DG19" s="16"/>
+      <c r="DH19" s="16"/>
+      <c r="DI19" s="16"/>
+      <c r="DJ19" s="16"/>
+      <c r="DK19" s="16"/>
+      <c r="DL19" s="16"/>
+      <c r="DM19" s="16"/>
+      <c r="DN19" s="16"/>
+      <c r="DO19" s="16"/>
+      <c r="DP19" s="16"/>
+      <c r="DQ19" s="16"/>
+      <c r="DR19" s="16"/>
+      <c r="DS19" s="16"/>
+      <c r="DT19" s="16"/>
+      <c r="DU19" s="16"/>
+      <c r="DV19" s="16"/>
+      <c r="DW19" s="18"/>
+      <c r="FQ19" s="8"/>
+      <c r="FR19" s="8"/>
+      <c r="FS19" s="8"/>
+      <c r="FT19" s="1"/>
+      <c r="FU19" s="1"/>
+      <c r="FV19" s="1"/>
+      <c r="FW19" s="1"/>
+      <c r="FX19" s="1"/>
+      <c r="FY19" s="1"/>
+    </row>
+    <row r="20" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="16"/>
+      <c r="CA20" s="16"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="16"/>
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
+      <c r="CJ20" s="16"/>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="16"/>
+      <c r="CM20" s="16"/>
+      <c r="CN20" s="16"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="16"/>
+      <c r="CQ20" s="16"/>
+      <c r="CR20" s="16"/>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="16"/>
+      <c r="CU20" s="16"/>
+      <c r="CV20" s="16"/>
+      <c r="CW20" s="16"/>
+      <c r="CX20" s="16"/>
+      <c r="CY20" s="16"/>
+      <c r="CZ20" s="16"/>
+      <c r="DA20" s="16"/>
+      <c r="DB20" s="16"/>
+      <c r="DC20" s="16"/>
+      <c r="DD20" s="16"/>
+      <c r="DE20" s="16"/>
+      <c r="DF20" s="16"/>
+      <c r="DG20" s="16"/>
+      <c r="DH20" s="16"/>
+      <c r="DI20" s="16"/>
+      <c r="DJ20" s="16"/>
+      <c r="DK20" s="16"/>
+      <c r="DL20" s="16"/>
+      <c r="DM20" s="16"/>
+      <c r="DN20" s="16"/>
+      <c r="DO20" s="16"/>
+      <c r="DP20" s="16"/>
+      <c r="DQ20" s="16"/>
+      <c r="DR20" s="16"/>
+      <c r="DS20" s="16"/>
+      <c r="DT20" s="16"/>
+      <c r="DU20" s="16"/>
+      <c r="DV20" s="16"/>
+      <c r="DW20" s="18"/>
+      <c r="FQ20" s="8"/>
+      <c r="FR20" s="8"/>
+      <c r="FS20" s="8"/>
+      <c r="FT20" s="1"/>
+      <c r="FU20" s="1"/>
+      <c r="FV20" s="1"/>
+      <c r="FW20" s="1"/>
+      <c r="FX20" s="1"/>
+      <c r="FY20" s="1"/>
+    </row>
+    <row r="21" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="16"/>
+      <c r="BS21" s="16"/>
+      <c r="BT21" s="16"/>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="16"/>
+      <c r="BW21" s="16"/>
+      <c r="BX21" s="16"/>
+      <c r="BY21" s="16"/>
+      <c r="BZ21" s="16"/>
+      <c r="CA21" s="16"/>
+      <c r="CB21" s="16"/>
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="16"/>
+      <c r="CE21" s="16"/>
+      <c r="CF21" s="16"/>
+      <c r="CG21" s="16"/>
+      <c r="CH21" s="16"/>
+      <c r="CI21" s="16"/>
+      <c r="CJ21" s="16"/>
+      <c r="CK21" s="16"/>
+      <c r="CL21" s="16"/>
+      <c r="CM21" s="16"/>
+      <c r="CN21" s="16"/>
+      <c r="CO21" s="16"/>
+      <c r="CP21" s="16"/>
+      <c r="CQ21" s="16"/>
+      <c r="CR21" s="16"/>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="16"/>
+      <c r="CU21" s="16"/>
+      <c r="CV21" s="16"/>
+      <c r="CW21" s="16"/>
+      <c r="CX21" s="16"/>
+      <c r="CY21" s="16"/>
+      <c r="CZ21" s="16"/>
+      <c r="DA21" s="16"/>
+      <c r="DB21" s="16"/>
+      <c r="DC21" s="16"/>
+      <c r="DD21" s="16"/>
+      <c r="DE21" s="16"/>
+      <c r="DF21" s="16"/>
+      <c r="DG21" s="16"/>
+      <c r="DH21" s="16"/>
+      <c r="DI21" s="16"/>
+      <c r="DJ21" s="16"/>
+      <c r="DK21" s="16"/>
+      <c r="DL21" s="16"/>
+      <c r="DM21" s="16"/>
+      <c r="DN21" s="16"/>
+      <c r="DO21" s="16"/>
+      <c r="DP21" s="16"/>
+      <c r="DQ21" s="16"/>
+      <c r="DR21" s="16"/>
+      <c r="DS21" s="16"/>
+      <c r="DT21" s="16"/>
+      <c r="DU21" s="16"/>
+      <c r="DV21" s="16"/>
+      <c r="DW21" s="18"/>
+      <c r="FQ21" s="8"/>
+      <c r="FR21" s="8"/>
+      <c r="FS21" s="8"/>
+      <c r="FT21" s="1"/>
+      <c r="FU21" s="1"/>
+      <c r="FV21" s="1"/>
+      <c r="FW21" s="1"/>
+      <c r="FX21" s="1"/>
+      <c r="FY21" s="1"/>
+    </row>
+    <row r="22" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="16"/>
+      <c r="BS22" s="16"/>
+      <c r="BT22" s="16"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="16"/>
+      <c r="BW22" s="16"/>
+      <c r="BX22" s="16"/>
+      <c r="BY22" s="16"/>
+      <c r="BZ22" s="16"/>
+      <c r="CA22" s="16"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+      <c r="CG22" s="16"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="16"/>
+      <c r="CN22" s="16"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="16"/>
+      <c r="CU22" s="16"/>
+      <c r="CV22" s="16"/>
+      <c r="CW22" s="16"/>
+      <c r="CX22" s="16"/>
+      <c r="CY22" s="16"/>
+      <c r="CZ22" s="16"/>
+      <c r="DA22" s="16"/>
+      <c r="DB22" s="16"/>
+      <c r="DC22" s="16"/>
+      <c r="DD22" s="16"/>
+      <c r="DE22" s="16"/>
+      <c r="DF22" s="16"/>
+      <c r="DG22" s="16"/>
+      <c r="DH22" s="16"/>
+      <c r="DI22" s="16"/>
+      <c r="DJ22" s="16"/>
+      <c r="DK22" s="16"/>
+      <c r="DL22" s="16"/>
+      <c r="DM22" s="16"/>
+      <c r="DN22" s="16"/>
+      <c r="DO22" s="16"/>
+      <c r="DP22" s="16"/>
+      <c r="DQ22" s="16"/>
+      <c r="DR22" s="16"/>
+      <c r="DS22" s="16"/>
+      <c r="DT22" s="16"/>
+      <c r="DU22" s="16"/>
+      <c r="DV22" s="16"/>
+      <c r="DW22" s="18"/>
+      <c r="FQ22" s="8"/>
+      <c r="FR22" s="8"/>
+      <c r="FS22" s="8"/>
+      <c r="FT22" s="1"/>
+      <c r="FU22" s="1"/>
+      <c r="FV22" s="1"/>
+      <c r="FW22" s="1"/>
+      <c r="FX22" s="1"/>
+      <c r="FY22" s="1"/>
+    </row>
+    <row r="23" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM23" s="16"/>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="16"/>
+      <c r="BP23" s="16"/>
+      <c r="BQ23" s="16"/>
+      <c r="BR23" s="16"/>
+      <c r="BS23" s="16"/>
+      <c r="BT23" s="16"/>
+      <c r="BU23" s="16"/>
+      <c r="BV23" s="16"/>
+      <c r="BW23" s="16"/>
+      <c r="BX23" s="16"/>
+      <c r="BY23" s="16"/>
+      <c r="BZ23" s="16"/>
+      <c r="CA23" s="16"/>
+      <c r="CB23" s="16"/>
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="16"/>
+      <c r="CE23" s="16"/>
+      <c r="CF23" s="16"/>
+      <c r="CG23" s="16"/>
+      <c r="CH23" s="16"/>
+      <c r="CI23" s="16"/>
+      <c r="CJ23" s="16"/>
+      <c r="CK23" s="16"/>
+      <c r="CL23" s="16"/>
+      <c r="CM23" s="16"/>
+      <c r="CN23" s="16"/>
+      <c r="CO23" s="16"/>
+      <c r="CP23" s="16"/>
+      <c r="CQ23" s="16"/>
+      <c r="CR23" s="16"/>
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="16"/>
+      <c r="CU23" s="16"/>
+      <c r="CV23" s="16"/>
+      <c r="CW23" s="16"/>
+      <c r="CX23" s="16"/>
+      <c r="CY23" s="16"/>
+      <c r="CZ23" s="16"/>
+      <c r="DA23" s="16"/>
+      <c r="DB23" s="16"/>
+      <c r="DC23" s="16"/>
+      <c r="DD23" s="16"/>
+      <c r="DE23" s="16"/>
+      <c r="DF23" s="16"/>
+      <c r="DG23" s="16"/>
+      <c r="DH23" s="16"/>
+      <c r="DI23" s="16"/>
+      <c r="DJ23" s="16"/>
+      <c r="DK23" s="16"/>
+      <c r="DL23" s="16"/>
+      <c r="DM23" s="16"/>
+      <c r="DN23" s="16"/>
+      <c r="DO23" s="16"/>
+      <c r="DP23" s="16"/>
+      <c r="DQ23" s="16"/>
+      <c r="DR23" s="16"/>
+      <c r="DS23" s="16"/>
+      <c r="DT23" s="16"/>
+      <c r="DU23" s="16"/>
+      <c r="DV23" s="16"/>
+      <c r="DW23" s="18"/>
+      <c r="FQ23" s="8"/>
+      <c r="FR23" s="8"/>
+      <c r="FS23" s="8"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" s="1"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+    </row>
+    <row r="24" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM24" s="16"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="16"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="16"/>
+      <c r="BR24" s="16"/>
+      <c r="BS24" s="16"/>
+      <c r="BT24" s="16"/>
+      <c r="BU24" s="16"/>
+      <c r="BV24" s="16"/>
+      <c r="BW24" s="16"/>
+      <c r="BX24" s="16"/>
+      <c r="BY24" s="16"/>
+      <c r="BZ24" s="16"/>
+      <c r="CA24" s="16"/>
+      <c r="CB24" s="16"/>
+      <c r="CC24" s="16"/>
+      <c r="CD24" s="16"/>
+      <c r="CE24" s="16"/>
+      <c r="CF24" s="16"/>
+      <c r="CG24" s="16"/>
+      <c r="CH24" s="16"/>
+      <c r="CI24" s="16"/>
+      <c r="CJ24" s="16"/>
+      <c r="CK24" s="16"/>
+      <c r="CL24" s="16"/>
+      <c r="CM24" s="16"/>
+      <c r="CN24" s="16"/>
+      <c r="CO24" s="16"/>
+      <c r="CP24" s="16"/>
+      <c r="CQ24" s="16"/>
+      <c r="CR24" s="16"/>
+      <c r="CS24" s="16"/>
+      <c r="CT24" s="16"/>
+      <c r="CU24" s="16"/>
+      <c r="CV24" s="16"/>
+      <c r="CW24" s="16"/>
+      <c r="CX24" s="16"/>
+      <c r="CY24" s="16"/>
+      <c r="CZ24" s="16"/>
+      <c r="DA24" s="16"/>
+      <c r="DB24" s="16"/>
+      <c r="DC24" s="16"/>
+      <c r="DD24" s="16"/>
+      <c r="DE24" s="16"/>
+      <c r="DF24" s="16"/>
+      <c r="DG24" s="16"/>
+      <c r="DH24" s="16"/>
+      <c r="DI24" s="16"/>
+      <c r="DJ24" s="16"/>
+      <c r="DK24" s="16"/>
+      <c r="DL24" s="16"/>
+      <c r="DM24" s="16"/>
+      <c r="DN24" s="16"/>
+      <c r="DO24" s="16"/>
+      <c r="DP24" s="16"/>
+      <c r="DQ24" s="16"/>
+      <c r="DR24" s="16"/>
+      <c r="DS24" s="16"/>
+      <c r="DT24" s="16"/>
+      <c r="DU24" s="16"/>
+      <c r="DV24" s="16"/>
+      <c r="DW24" s="18"/>
+      <c r="FQ24" s="8"/>
+      <c r="FR24" s="8"/>
+      <c r="FS24" s="8"/>
+      <c r="FT24" s="1"/>
+      <c r="FU24" s="1"/>
+      <c r="FV24" s="1"/>
+      <c r="FW24" s="1"/>
+      <c r="FX24" s="1"/>
+      <c r="FY24" s="1"/>
+    </row>
+    <row r="25" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM25" s="16"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="16"/>
+      <c r="BP25" s="16"/>
+      <c r="BQ25" s="16"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="16"/>
+      <c r="BT25" s="16"/>
+      <c r="BU25" s="16"/>
+      <c r="BV25" s="16"/>
+      <c r="BW25" s="16"/>
+      <c r="BX25" s="16"/>
+      <c r="BY25" s="16"/>
+      <c r="BZ25" s="16"/>
+      <c r="CA25" s="16"/>
+      <c r="CB25" s="16"/>
+      <c r="CC25" s="16"/>
+      <c r="CD25" s="16"/>
+      <c r="CE25" s="16"/>
+      <c r="CF25" s="16"/>
+      <c r="CG25" s="16"/>
+      <c r="CH25" s="16"/>
+      <c r="CI25" s="16"/>
+      <c r="CJ25" s="16"/>
+      <c r="CK25" s="16"/>
+      <c r="CL25" s="16"/>
+      <c r="CM25" s="16"/>
+      <c r="CN25" s="16"/>
+      <c r="CO25" s="16"/>
+      <c r="CP25" s="16"/>
+      <c r="CQ25" s="16"/>
+      <c r="CR25" s="16"/>
+      <c r="CS25" s="16"/>
+      <c r="CT25" s="16"/>
+      <c r="CU25" s="16"/>
+      <c r="CV25" s="16"/>
+      <c r="CW25" s="16"/>
+      <c r="CX25" s="16"/>
+      <c r="CY25" s="16"/>
+      <c r="CZ25" s="16"/>
+      <c r="DA25" s="16"/>
+      <c r="DB25" s="16"/>
+      <c r="DC25" s="16"/>
+      <c r="DD25" s="16"/>
+      <c r="DE25" s="16"/>
+      <c r="DF25" s="16"/>
+      <c r="DG25" s="16"/>
+      <c r="DH25" s="16"/>
+      <c r="DI25" s="16"/>
+      <c r="DJ25" s="16"/>
+      <c r="DK25" s="16"/>
+      <c r="DL25" s="16"/>
+      <c r="DM25" s="16"/>
+      <c r="DN25" s="16"/>
+      <c r="DO25" s="16"/>
+      <c r="DP25" s="16"/>
+      <c r="DQ25" s="16"/>
+      <c r="DR25" s="16"/>
+      <c r="DS25" s="16"/>
+      <c r="DT25" s="16"/>
+      <c r="DU25" s="16"/>
+      <c r="DV25" s="16"/>
+      <c r="DW25" s="18"/>
+      <c r="FQ25" s="8"/>
+      <c r="FR25" s="8"/>
+      <c r="FS25" s="8"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" s="1"/>
+      <c r="FW25" s="1"/>
+      <c r="FX25" s="1"/>
+      <c r="FY25" s="1"/>
+    </row>
+    <row r="26" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM26" s="16"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="16"/>
+      <c r="BP26" s="16"/>
+      <c r="BQ26" s="16"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="16"/>
+      <c r="BT26" s="16"/>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="16"/>
+      <c r="BW26" s="16"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="16"/>
+      <c r="BZ26" s="16"/>
+      <c r="CA26" s="16"/>
+      <c r="CB26" s="16"/>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="16"/>
+      <c r="CE26" s="16"/>
+      <c r="CF26" s="16"/>
+      <c r="CG26" s="16"/>
+      <c r="CH26" s="16"/>
+      <c r="CI26" s="16"/>
+      <c r="CJ26" s="16"/>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
+      <c r="CV26" s="16"/>
+      <c r="CW26" s="16"/>
+      <c r="CX26" s="16"/>
+      <c r="CY26" s="16"/>
+      <c r="CZ26" s="16"/>
+      <c r="DA26" s="16"/>
+      <c r="DB26" s="16"/>
+      <c r="DC26" s="16"/>
+      <c r="DD26" s="16"/>
+      <c r="DE26" s="16"/>
+      <c r="DF26" s="16"/>
+      <c r="DG26" s="16"/>
+      <c r="DH26" s="16"/>
+      <c r="DI26" s="16"/>
+      <c r="DJ26" s="16"/>
+      <c r="DK26" s="16"/>
+      <c r="DL26" s="16"/>
+      <c r="DM26" s="16"/>
+      <c r="DN26" s="16"/>
+      <c r="DO26" s="16"/>
+      <c r="DP26" s="16"/>
+      <c r="DQ26" s="16"/>
+      <c r="DR26" s="16"/>
+      <c r="DS26" s="16"/>
+      <c r="DT26" s="16"/>
+      <c r="DU26" s="16"/>
+      <c r="DV26" s="16"/>
+      <c r="DW26" s="18"/>
+      <c r="FQ26" s="8"/>
+      <c r="FR26" s="8"/>
+      <c r="FS26" s="8"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+    </row>
+    <row r="27" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM27" s="16"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="16"/>
+      <c r="BP27" s="16"/>
+      <c r="BQ27" s="16"/>
+      <c r="BR27" s="16"/>
+      <c r="BS27" s="16"/>
+      <c r="BT27" s="16"/>
+      <c r="BU27" s="16"/>
+      <c r="BV27" s="16"/>
+      <c r="BW27" s="16"/>
+      <c r="BX27" s="16"/>
+      <c r="BY27" s="16"/>
+      <c r="BZ27" s="16"/>
+      <c r="CA27" s="16"/>
+      <c r="CB27" s="16"/>
+      <c r="CC27" s="16"/>
+      <c r="CD27" s="16"/>
+      <c r="CE27" s="16"/>
+      <c r="CF27" s="16"/>
+      <c r="CG27" s="16"/>
+      <c r="CH27" s="16"/>
+      <c r="CI27" s="16"/>
+      <c r="CJ27" s="16"/>
+      <c r="CK27" s="16"/>
+      <c r="CL27" s="16"/>
+      <c r="CM27" s="16"/>
+      <c r="CN27" s="16"/>
+      <c r="CO27" s="16"/>
+      <c r="CP27" s="16"/>
+      <c r="CQ27" s="16"/>
+      <c r="CR27" s="16"/>
+      <c r="CS27" s="16"/>
+      <c r="CT27" s="16"/>
+      <c r="CU27" s="16"/>
+      <c r="CV27" s="16"/>
+      <c r="CW27" s="16"/>
+      <c r="CX27" s="16"/>
+      <c r="CY27" s="16"/>
+      <c r="CZ27" s="16"/>
+      <c r="DA27" s="16"/>
+      <c r="DB27" s="16"/>
+      <c r="DC27" s="16"/>
+      <c r="DD27" s="16"/>
+      <c r="DE27" s="16"/>
+      <c r="DF27" s="16"/>
+      <c r="DG27" s="16"/>
+      <c r="DH27" s="16"/>
+      <c r="DI27" s="16"/>
+      <c r="DJ27" s="16"/>
+      <c r="DK27" s="16"/>
+      <c r="DL27" s="16"/>
+      <c r="DM27" s="16"/>
+      <c r="DN27" s="16"/>
+      <c r="DO27" s="16"/>
+      <c r="DP27" s="16"/>
+      <c r="DQ27" s="16"/>
+      <c r="DR27" s="16"/>
+      <c r="DS27" s="16"/>
+      <c r="DT27" s="16"/>
+      <c r="DU27" s="16"/>
+      <c r="DV27" s="16"/>
+      <c r="DW27" s="18"/>
+      <c r="FQ27" s="8"/>
+      <c r="FR27" s="8"/>
+      <c r="FS27" s="8"/>
+      <c r="FT27" s="1"/>
+      <c r="FU27" s="1"/>
+      <c r="FV27" s="1"/>
+      <c r="FW27" s="1"/>
+      <c r="FX27" s="1"/>
+      <c r="FY27" s="1"/>
+    </row>
+    <row r="28" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM28" s="16"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="16"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="16"/>
+      <c r="BR28" s="16"/>
+      <c r="BS28" s="16"/>
+      <c r="BT28" s="16"/>
+      <c r="BU28" s="16"/>
+      <c r="BV28" s="16"/>
+      <c r="BW28" s="16"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="16"/>
+      <c r="BZ28" s="16"/>
+      <c r="CA28" s="16"/>
+      <c r="CB28" s="16"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="16"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="16"/>
+      <c r="CG28" s="16"/>
+      <c r="CH28" s="16"/>
+      <c r="CI28" s="16"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="16"/>
+      <c r="CL28" s="16"/>
+      <c r="CM28" s="16"/>
+      <c r="CN28" s="16"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="16"/>
+      <c r="CV28" s="16"/>
+      <c r="CW28" s="16"/>
+      <c r="CX28" s="16"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="16"/>
+      <c r="DA28" s="16"/>
+      <c r="DB28" s="16"/>
+      <c r="DC28" s="16"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="16"/>
+      <c r="DF28" s="16"/>
+      <c r="DG28" s="16"/>
+      <c r="DH28" s="16"/>
+      <c r="DI28" s="16"/>
+      <c r="DJ28" s="16"/>
+      <c r="DK28" s="16"/>
+      <c r="DL28" s="16"/>
+      <c r="DM28" s="16"/>
+      <c r="DN28" s="16"/>
+      <c r="DO28" s="16"/>
+      <c r="DP28" s="16"/>
+      <c r="DQ28" s="16"/>
+      <c r="DR28" s="16"/>
+      <c r="DS28" s="16"/>
+      <c r="DT28" s="16"/>
+      <c r="DU28" s="16"/>
+      <c r="DV28" s="16"/>
+      <c r="DW28" s="18"/>
+      <c r="FQ28" s="8"/>
+      <c r="FR28" s="8"/>
+      <c r="FS28" s="8"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" s="1"/>
+      <c r="FW28" s="1"/>
+      <c r="FX28" s="1"/>
+      <c r="FY28" s="1"/>
+    </row>
+    <row r="29" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="16"/>
+      <c r="BP29" s="16"/>
+      <c r="BQ29" s="16"/>
+      <c r="BR29" s="16"/>
+      <c r="BS29" s="16"/>
+      <c r="BT29" s="16"/>
+      <c r="BU29" s="16"/>
+      <c r="BV29" s="16"/>
+      <c r="BW29" s="16"/>
+      <c r="BX29" s="16"/>
+      <c r="BY29" s="16"/>
+      <c r="BZ29" s="16"/>
+      <c r="CA29" s="16"/>
+      <c r="CB29" s="16"/>
+      <c r="CC29" s="16"/>
+      <c r="CD29" s="16"/>
+      <c r="CE29" s="16"/>
+      <c r="CF29" s="16"/>
+      <c r="CG29" s="16"/>
+      <c r="CH29" s="16"/>
+      <c r="CI29" s="16"/>
+      <c r="CJ29" s="16"/>
+      <c r="CK29" s="16"/>
+      <c r="CL29" s="16"/>
+      <c r="CM29" s="16"/>
+      <c r="CN29" s="16"/>
+      <c r="CO29" s="16"/>
+      <c r="CP29" s="16"/>
+      <c r="CQ29" s="16"/>
+      <c r="CR29" s="16"/>
+      <c r="CS29" s="16"/>
+      <c r="CT29" s="16"/>
+      <c r="CU29" s="16"/>
+      <c r="CV29" s="16"/>
+      <c r="CW29" s="16"/>
+      <c r="CX29" s="16"/>
+      <c r="CY29" s="16"/>
+      <c r="CZ29" s="16"/>
+      <c r="DA29" s="16"/>
+      <c r="DB29" s="16"/>
+      <c r="DC29" s="16"/>
+      <c r="DD29" s="16"/>
+      <c r="DE29" s="16"/>
+      <c r="DF29" s="16"/>
+      <c r="DG29" s="16"/>
+      <c r="DH29" s="16"/>
+      <c r="DI29" s="16"/>
+      <c r="DJ29" s="16"/>
+      <c r="DK29" s="16"/>
+      <c r="DL29" s="16"/>
+      <c r="DM29" s="16"/>
+      <c r="DN29" s="16"/>
+      <c r="DO29" s="16"/>
+      <c r="DP29" s="16"/>
+      <c r="DQ29" s="16"/>
+      <c r="DR29" s="16"/>
+      <c r="DS29" s="16"/>
+      <c r="DT29" s="16"/>
+      <c r="DU29" s="16"/>
+      <c r="DV29" s="16"/>
+      <c r="DW29" s="18"/>
+      <c r="FQ29" s="8"/>
+      <c r="FR29" s="8"/>
+      <c r="FS29" s="8"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" s="1"/>
+      <c r="FW29" s="1"/>
+      <c r="FX29" s="1"/>
+      <c r="FY29" s="1"/>
+    </row>
+    <row r="30" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="16"/>
+      <c r="BW30" s="16"/>
+      <c r="BX30" s="16"/>
+      <c r="BY30" s="16"/>
+      <c r="BZ30" s="16"/>
+      <c r="CA30" s="16"/>
+      <c r="CB30" s="16"/>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="16"/>
+      <c r="CE30" s="16"/>
+      <c r="CF30" s="16"/>
+      <c r="CG30" s="16"/>
+      <c r="CH30" s="16"/>
+      <c r="CI30" s="16"/>
+      <c r="CJ30" s="16"/>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="16"/>
+      <c r="CM30" s="16"/>
+      <c r="CN30" s="16"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="16"/>
+      <c r="CU30" s="16"/>
+      <c r="CV30" s="16"/>
+      <c r="CW30" s="16"/>
+      <c r="CX30" s="16"/>
+      <c r="CY30" s="16"/>
+      <c r="CZ30" s="16"/>
+      <c r="DA30" s="16"/>
+      <c r="DB30" s="16"/>
+      <c r="DC30" s="16"/>
+      <c r="DD30" s="16"/>
+      <c r="DE30" s="16"/>
+      <c r="DF30" s="16"/>
+      <c r="DG30" s="16"/>
+      <c r="DH30" s="16"/>
+      <c r="DI30" s="16"/>
+      <c r="DJ30" s="16"/>
+      <c r="DK30" s="16"/>
+      <c r="DL30" s="16"/>
+      <c r="DM30" s="16"/>
+      <c r="DN30" s="16"/>
+      <c r="DO30" s="16"/>
+      <c r="DP30" s="16"/>
+      <c r="DQ30" s="16"/>
+      <c r="DR30" s="16"/>
+      <c r="DS30" s="16"/>
+      <c r="DT30" s="16"/>
+      <c r="DU30" s="16"/>
+      <c r="DV30" s="16"/>
+      <c r="DW30" s="18"/>
+      <c r="FQ30" s="8"/>
+      <c r="FR30" s="8"/>
+      <c r="FS30" s="8"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" s="1"/>
+      <c r="FW30" s="1"/>
+      <c r="FX30" s="1"/>
+      <c r="FY30" s="1"/>
+    </row>
+    <row r="31" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16"/>
+      <c r="BP31" s="16"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="16"/>
+      <c r="BS31" s="16"/>
+      <c r="BT31" s="16"/>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="16"/>
+      <c r="BW31" s="16"/>
+      <c r="BX31" s="16"/>
+      <c r="BY31" s="16"/>
+      <c r="BZ31" s="16"/>
+      <c r="CA31" s="16"/>
+      <c r="CB31" s="16"/>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="16"/>
+      <c r="CE31" s="16"/>
+      <c r="CF31" s="16"/>
+      <c r="CG31" s="16"/>
+      <c r="CH31" s="16"/>
+      <c r="CI31" s="16"/>
+      <c r="CJ31" s="16"/>
+      <c r="CK31" s="16"/>
+      <c r="CL31" s="16"/>
+      <c r="CM31" s="16"/>
+      <c r="CN31" s="16"/>
+      <c r="CO31" s="16"/>
+      <c r="CP31" s="16"/>
+      <c r="CQ31" s="16"/>
+      <c r="CR31" s="16"/>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="16"/>
+      <c r="CU31" s="16"/>
+      <c r="CV31" s="16"/>
+      <c r="CW31" s="16"/>
+      <c r="CX31" s="16"/>
+      <c r="CY31" s="16"/>
+      <c r="CZ31" s="16"/>
+      <c r="DA31" s="16"/>
+      <c r="DB31" s="16"/>
+      <c r="DC31" s="16"/>
+      <c r="DD31" s="16"/>
+      <c r="DE31" s="16"/>
+      <c r="DF31" s="16"/>
+      <c r="DG31" s="16"/>
+      <c r="DH31" s="16"/>
+      <c r="DI31" s="16"/>
+      <c r="DJ31" s="16"/>
+      <c r="DK31" s="16"/>
+      <c r="DL31" s="16"/>
+      <c r="DM31" s="16"/>
+      <c r="DN31" s="16"/>
+      <c r="DO31" s="16"/>
+      <c r="DP31" s="16"/>
+      <c r="DQ31" s="16"/>
+      <c r="DR31" s="16"/>
+      <c r="DS31" s="16"/>
+      <c r="DT31" s="16"/>
+      <c r="DU31" s="16"/>
+      <c r="DV31" s="16"/>
+      <c r="DW31" s="18"/>
+      <c r="FQ31" s="8"/>
+      <c r="FR31" s="8"/>
+      <c r="FS31" s="8"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" s="1"/>
+      <c r="FW31" s="1"/>
+      <c r="FX31" s="1"/>
+      <c r="FY31" s="1"/>
+    </row>
+    <row r="32" spans="1:181" x14ac:dyDescent="0.2">
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="16"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="16"/>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="16"/>
+      <c r="BZ32" s="16"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="16"/>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="16"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="16"/>
+      <c r="CG32" s="16"/>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16"/>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="16"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
+      <c r="DK32" s="16"/>
+      <c r="DL32" s="16"/>
+      <c r="DM32" s="16"/>
+      <c r="DN32" s="16"/>
+      <c r="DO32" s="16"/>
+      <c r="DP32" s="16"/>
+      <c r="DQ32" s="16"/>
+      <c r="DR32" s="16"/>
+      <c r="DS32" s="16"/>
+      <c r="DT32" s="16"/>
+      <c r="DU32" s="16"/>
+      <c r="DV32" s="16"/>
+      <c r="DW32" s="18"/>
+      <c r="FQ32" s="8"/>
+      <c r="FR32" s="8"/>
+      <c r="FS32" s="8"/>
+      <c r="FT32" s="1"/>
+      <c r="FU32" s="1"/>
+      <c r="FV32" s="1"/>
+      <c r="FW32" s="1"/>
+      <c r="FX32" s="1"/>
+      <c r="FY32" s="1"/>
+    </row>
+    <row r="33" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="16"/>
+      <c r="BQ33" s="16"/>
+      <c r="BR33" s="16"/>
+      <c r="BS33" s="16"/>
+      <c r="BT33" s="16"/>
+      <c r="BU33" s="16"/>
+      <c r="BV33" s="16"/>
+      <c r="BW33" s="16"/>
+      <c r="BX33" s="16"/>
+      <c r="BY33" s="16"/>
+      <c r="BZ33" s="16"/>
+      <c r="CA33" s="16"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="16"/>
+      <c r="CG33" s="16"/>
+      <c r="CH33" s="16"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="16"/>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="16"/>
+      <c r="CV33" s="16"/>
+      <c r="CW33" s="16"/>
+      <c r="CX33" s="16"/>
+      <c r="CY33" s="16"/>
+      <c r="CZ33" s="16"/>
+      <c r="DA33" s="16"/>
+      <c r="DB33" s="16"/>
+      <c r="DC33" s="16"/>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
+      <c r="DF33" s="16"/>
+      <c r="DG33" s="16"/>
+      <c r="DH33" s="16"/>
+      <c r="DI33" s="16"/>
+      <c r="DJ33" s="16"/>
+      <c r="DK33" s="16"/>
+      <c r="DL33" s="16"/>
+      <c r="DM33" s="16"/>
+      <c r="DN33" s="16"/>
+      <c r="DO33" s="16"/>
+      <c r="DP33" s="16"/>
+      <c r="DQ33" s="16"/>
+      <c r="DR33" s="16"/>
+      <c r="DS33" s="16"/>
+      <c r="DT33" s="16"/>
+      <c r="DU33" s="16"/>
+      <c r="DV33" s="16"/>
+      <c r="DW33" s="18"/>
+      <c r="FQ33" s="8"/>
+      <c r="FR33" s="8"/>
+      <c r="FS33" s="8"/>
+      <c r="FT33" s="1"/>
+      <c r="FU33" s="1"/>
+      <c r="FV33" s="1"/>
+      <c r="FW33" s="1"/>
+      <c r="FX33" s="1"/>
+      <c r="FY33" s="1"/>
+    </row>
+    <row r="34" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="16"/>
+      <c r="BP34" s="16"/>
+      <c r="BQ34" s="16"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="16"/>
+      <c r="BT34" s="16"/>
+      <c r="BU34" s="16"/>
+      <c r="BV34" s="16"/>
+      <c r="BW34" s="16"/>
+      <c r="BX34" s="16"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
+      <c r="CU34" s="16"/>
+      <c r="CV34" s="16"/>
+      <c r="CW34" s="16"/>
+      <c r="CX34" s="16"/>
+      <c r="CY34" s="16"/>
+      <c r="CZ34" s="16"/>
+      <c r="DA34" s="16"/>
+      <c r="DB34" s="16"/>
+      <c r="DC34" s="16"/>
+      <c r="DD34" s="16"/>
+      <c r="DE34" s="16"/>
+      <c r="DF34" s="16"/>
+      <c r="DG34" s="16"/>
+      <c r="DH34" s="16"/>
+      <c r="DI34" s="16"/>
+      <c r="DJ34" s="16"/>
+      <c r="DK34" s="16"/>
+      <c r="DL34" s="16"/>
+      <c r="DM34" s="16"/>
+      <c r="DN34" s="16"/>
+      <c r="DO34" s="16"/>
+      <c r="DP34" s="16"/>
+      <c r="DQ34" s="16"/>
+      <c r="DR34" s="16"/>
+      <c r="DS34" s="16"/>
+      <c r="DT34" s="16"/>
+      <c r="DU34" s="16"/>
+      <c r="DV34" s="16"/>
+      <c r="DW34" s="18"/>
+      <c r="FQ34" s="8"/>
+      <c r="FR34" s="8"/>
+      <c r="FS34" s="8"/>
+      <c r="FT34" s="1"/>
+      <c r="FU34" s="1"/>
+      <c r="FV34" s="1"/>
+      <c r="FW34" s="1"/>
+      <c r="FX34" s="1"/>
+      <c r="FY34" s="1"/>
+    </row>
+    <row r="35" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="BU35" s="16"/>
+      <c r="BV35" s="16"/>
+      <c r="BW35" s="16"/>
+      <c r="BX35" s="16"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="16"/>
+      <c r="CW35" s="16"/>
+      <c r="CX35" s="16"/>
+      <c r="CY35" s="16"/>
+      <c r="CZ35" s="16"/>
+      <c r="DA35" s="16"/>
+      <c r="DB35" s="16"/>
+      <c r="DC35" s="16"/>
+      <c r="DD35" s="16"/>
+      <c r="DE35" s="16"/>
+      <c r="DF35" s="16"/>
+      <c r="DG35" s="16"/>
+      <c r="DH35" s="16"/>
+      <c r="DI35" s="16"/>
+      <c r="DJ35" s="16"/>
+      <c r="DK35" s="16"/>
+      <c r="DL35" s="16"/>
+      <c r="DM35" s="16"/>
+      <c r="DN35" s="16"/>
+      <c r="DO35" s="16"/>
+      <c r="DP35" s="16"/>
+      <c r="DQ35" s="16"/>
+      <c r="DR35" s="16"/>
+      <c r="DS35" s="16"/>
+      <c r="DT35" s="16"/>
+      <c r="DU35" s="16"/>
+      <c r="DV35" s="16"/>
+      <c r="DW35" s="18"/>
+      <c r="FQ35" s="8"/>
+      <c r="FR35" s="8"/>
+      <c r="FS35" s="8"/>
+      <c r="FT35" s="1"/>
+      <c r="FU35" s="1"/>
+      <c r="FV35" s="1"/>
+      <c r="FW35" s="1"/>
+      <c r="FX35" s="1"/>
+      <c r="FY35" s="1"/>
+    </row>
+    <row r="36" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="16"/>
+      <c r="BP36" s="16"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="16"/>
+      <c r="BT36" s="16"/>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="16"/>
+      <c r="BW36" s="16"/>
+      <c r="BX36" s="16"/>
+      <c r="BY36" s="16"/>
+      <c r="BZ36" s="16"/>
+      <c r="CA36" s="16"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="16"/>
+      <c r="CD36" s="16"/>
+      <c r="CE36" s="16"/>
+      <c r="CF36" s="16"/>
+      <c r="CG36" s="16"/>
+      <c r="CH36" s="16"/>
+      <c r="CI36" s="16"/>
+      <c r="CJ36" s="16"/>
+      <c r="CK36" s="16"/>
+      <c r="CL36" s="16"/>
+      <c r="CM36" s="16"/>
+      <c r="CN36" s="16"/>
+      <c r="CO36" s="16"/>
+      <c r="CP36" s="16"/>
+      <c r="CQ36" s="16"/>
+      <c r="CR36" s="16"/>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="16"/>
+      <c r="CU36" s="16"/>
+      <c r="CV36" s="16"/>
+      <c r="CW36" s="16"/>
+      <c r="CX36" s="16"/>
+      <c r="CY36" s="16"/>
+      <c r="CZ36" s="16"/>
+      <c r="DA36" s="16"/>
+      <c r="DB36" s="16"/>
+      <c r="DC36" s="16"/>
+      <c r="DD36" s="16"/>
+      <c r="DE36" s="16"/>
+      <c r="DF36" s="16"/>
+      <c r="DG36" s="16"/>
+      <c r="DH36" s="16"/>
+      <c r="DI36" s="16"/>
+      <c r="DJ36" s="16"/>
+      <c r="DK36" s="16"/>
+      <c r="DL36" s="16"/>
+      <c r="DM36" s="16"/>
+      <c r="DN36" s="16"/>
+      <c r="DO36" s="16"/>
+      <c r="DP36" s="16"/>
+      <c r="DQ36" s="16"/>
+      <c r="DR36" s="16"/>
+      <c r="DS36" s="16"/>
+      <c r="DT36" s="16"/>
+      <c r="DU36" s="16"/>
+      <c r="DV36" s="16"/>
+      <c r="DW36" s="18"/>
+      <c r="FQ36" s="8"/>
+      <c r="FR36" s="8"/>
+      <c r="FS36" s="8"/>
+      <c r="FT36" s="1"/>
+      <c r="FU36" s="1"/>
+      <c r="FV36" s="1"/>
+      <c r="FW36" s="1"/>
+      <c r="FX36" s="1"/>
+      <c r="FY36" s="1"/>
+    </row>
+    <row r="37" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="16"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="16"/>
+      <c r="BT37" s="16"/>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="16"/>
+      <c r="BW37" s="16"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="16"/>
+      <c r="BZ37" s="16"/>
+      <c r="CA37" s="16"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="16"/>
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="16"/>
+      <c r="CG37" s="16"/>
+      <c r="CH37" s="16"/>
+      <c r="CI37" s="16"/>
+      <c r="CJ37" s="16"/>
+      <c r="CK37" s="16"/>
+      <c r="CL37" s="16"/>
+      <c r="CM37" s="16"/>
+      <c r="CN37" s="16"/>
+      <c r="CO37" s="16"/>
+      <c r="CP37" s="16"/>
+      <c r="CQ37" s="16"/>
+      <c r="CR37" s="16"/>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="16"/>
+      <c r="CU37" s="16"/>
+      <c r="CV37" s="16"/>
+      <c r="CW37" s="16"/>
+      <c r="CX37" s="16"/>
+      <c r="CY37" s="16"/>
+      <c r="CZ37" s="16"/>
+      <c r="DA37" s="16"/>
+      <c r="DB37" s="16"/>
+      <c r="DC37" s="16"/>
+      <c r="DD37" s="16"/>
+      <c r="DE37" s="16"/>
+      <c r="DF37" s="16"/>
+      <c r="DG37" s="16"/>
+      <c r="DH37" s="16"/>
+      <c r="DI37" s="16"/>
+      <c r="DJ37" s="16"/>
+      <c r="DK37" s="16"/>
+      <c r="DL37" s="16"/>
+      <c r="DM37" s="16"/>
+      <c r="DN37" s="16"/>
+      <c r="DO37" s="16"/>
+      <c r="DP37" s="16"/>
+      <c r="DQ37" s="16"/>
+      <c r="DR37" s="16"/>
+      <c r="DS37" s="16"/>
+      <c r="DT37" s="16"/>
+      <c r="DU37" s="16"/>
+      <c r="DV37" s="16"/>
+      <c r="DW37" s="18"/>
+      <c r="FQ37" s="8"/>
+      <c r="FR37" s="8"/>
+      <c r="FS37" s="8"/>
+      <c r="FT37" s="1"/>
+      <c r="FU37" s="1"/>
+      <c r="FV37" s="1"/>
+      <c r="FW37" s="1"/>
+      <c r="FX37" s="1"/>
+      <c r="FY37" s="1"/>
+    </row>
+    <row r="38" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="16"/>
+      <c r="BT38" s="16"/>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="16"/>
+      <c r="BW38" s="16"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="16"/>
+      <c r="BZ38" s="16"/>
+      <c r="CA38" s="16"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="16"/>
+      <c r="CG38" s="16"/>
+      <c r="CH38" s="16"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="16"/>
+      <c r="CN38" s="16"/>
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+      <c r="CU38" s="16"/>
+      <c r="CV38" s="16"/>
+      <c r="CW38" s="16"/>
+      <c r="CX38" s="16"/>
+      <c r="CY38" s="16"/>
+      <c r="CZ38" s="16"/>
+      <c r="DA38" s="16"/>
+      <c r="DB38" s="16"/>
+      <c r="DC38" s="16"/>
+      <c r="DD38" s="16"/>
+      <c r="DE38" s="16"/>
+      <c r="DF38" s="16"/>
+      <c r="DG38" s="16"/>
+      <c r="DH38" s="16"/>
+      <c r="DI38" s="16"/>
+      <c r="DJ38" s="16"/>
+      <c r="DK38" s="16"/>
+      <c r="DL38" s="16"/>
+      <c r="DM38" s="16"/>
+      <c r="DN38" s="16"/>
+      <c r="DO38" s="16"/>
+      <c r="DP38" s="16"/>
+      <c r="DQ38" s="16"/>
+      <c r="DR38" s="16"/>
+      <c r="DS38" s="16"/>
+      <c r="DT38" s="16"/>
+      <c r="DU38" s="16"/>
+      <c r="DV38" s="16"/>
+      <c r="DW38" s="18"/>
+      <c r="FQ38" s="8"/>
+      <c r="FR38" s="8"/>
+      <c r="FS38" s="8"/>
+      <c r="FT38" s="1"/>
+      <c r="FU38" s="1"/>
+      <c r="FV38" s="1"/>
+      <c r="FW38" s="1"/>
+      <c r="FX38" s="1"/>
+      <c r="FY38" s="1"/>
+    </row>
+    <row r="39" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM39" s="16"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="16"/>
+      <c r="BP39" s="16"/>
+      <c r="BQ39" s="16"/>
+      <c r="BR39" s="16"/>
+      <c r="BS39" s="16"/>
+      <c r="BT39" s="16"/>
+      <c r="BU39" s="16"/>
+      <c r="BV39" s="16"/>
+      <c r="BW39" s="16"/>
+      <c r="BX39" s="16"/>
+      <c r="BY39" s="16"/>
+      <c r="BZ39" s="16"/>
+      <c r="CA39" s="16"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="16"/>
+      <c r="CF39" s="16"/>
+      <c r="CG39" s="16"/>
+      <c r="CH39" s="16"/>
+      <c r="CI39" s="16"/>
+      <c r="CJ39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="16"/>
+      <c r="CM39" s="16"/>
+      <c r="CN39" s="16"/>
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+      <c r="CU39" s="16"/>
+      <c r="CV39" s="16"/>
+      <c r="CW39" s="16"/>
+      <c r="CX39" s="16"/>
+      <c r="CY39" s="16"/>
+      <c r="CZ39" s="16"/>
+      <c r="DA39" s="16"/>
+      <c r="DB39" s="16"/>
+      <c r="DC39" s="16"/>
+      <c r="DD39" s="16"/>
+      <c r="DE39" s="16"/>
+      <c r="DF39" s="16"/>
+      <c r="DG39" s="16"/>
+      <c r="DH39" s="16"/>
+      <c r="DI39" s="16"/>
+      <c r="DJ39" s="16"/>
+      <c r="DK39" s="16"/>
+      <c r="DL39" s="16"/>
+      <c r="DM39" s="16"/>
+      <c r="DN39" s="16"/>
+      <c r="DO39" s="16"/>
+      <c r="DP39" s="16"/>
+      <c r="DQ39" s="16"/>
+      <c r="DR39" s="16"/>
+      <c r="DS39" s="16"/>
+      <c r="DT39" s="16"/>
+      <c r="DU39" s="16"/>
+      <c r="DV39" s="16"/>
+      <c r="DW39" s="18"/>
+      <c r="FQ39" s="8"/>
+      <c r="FR39" s="8"/>
+      <c r="FS39" s="8"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" s="1"/>
+      <c r="FW39" s="1"/>
+      <c r="FX39" s="1"/>
+      <c r="FY39" s="1"/>
+    </row>
+    <row r="40" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>329</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>277</v>
+      </c>
+      <c r="K40">
+        <v>17</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>386</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <v>394</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>183</v>
+      </c>
+      <c r="AF40">
+        <v>9</v>
+      </c>
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>449</v>
+      </c>
+      <c r="AM40">
+        <v>15</v>
+      </c>
+      <c r="AR40">
+        <v>4</v>
+      </c>
+      <c r="AS40">
+        <v>322</v>
+      </c>
+      <c r="AT40">
+        <v>11</v>
+      </c>
+      <c r="AY40">
+        <v>3</v>
+      </c>
+      <c r="AZ40">
+        <v>180</v>
+      </c>
+      <c r="BA40">
+        <v>7</v>
+      </c>
+      <c r="BF40">
+        <v>5</v>
+      </c>
+      <c r="BG40">
+        <v>457</v>
+      </c>
+      <c r="BH40">
+        <v>5</v>
+      </c>
+      <c r="BM40" s="16"/>
+      <c r="BN40" s="16"/>
+      <c r="BO40" s="16"/>
+      <c r="BP40" s="16"/>
+      <c r="BQ40" s="16"/>
+      <c r="BR40" s="16"/>
+      <c r="BS40" s="16"/>
+      <c r="BT40" s="16"/>
+      <c r="BU40" s="16"/>
+      <c r="BV40" s="16"/>
+      <c r="BW40" s="16"/>
+      <c r="BX40" s="16"/>
+      <c r="BY40" s="16"/>
+      <c r="BZ40" s="16"/>
+      <c r="CA40" s="16"/>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="16"/>
+      <c r="CD40" s="16"/>
+      <c r="CE40" s="16"/>
+      <c r="CF40" s="16"/>
+      <c r="CG40" s="16"/>
+      <c r="CH40" s="16"/>
+      <c r="CI40" s="16"/>
+      <c r="CJ40" s="16"/>
+      <c r="CK40" s="16"/>
+      <c r="CL40" s="16"/>
+      <c r="CM40" s="16"/>
+      <c r="CN40" s="16"/>
+      <c r="CO40" s="16"/>
+      <c r="CP40" s="16"/>
+      <c r="CQ40" s="16"/>
+      <c r="CR40" s="16"/>
+      <c r="CS40" s="16"/>
+      <c r="CT40" s="16"/>
+      <c r="CU40" s="16"/>
+      <c r="CV40" s="16"/>
+      <c r="CW40" s="16"/>
+      <c r="CX40" s="16"/>
+      <c r="CY40" s="16"/>
+      <c r="CZ40" s="16"/>
+      <c r="DA40" s="16"/>
+      <c r="DB40" s="16"/>
+      <c r="DC40" s="16"/>
+      <c r="DD40" s="16"/>
+      <c r="DE40" s="16"/>
+      <c r="DF40" s="16"/>
+      <c r="DG40" s="16"/>
+      <c r="DH40" s="16"/>
+      <c r="DI40" s="16"/>
+      <c r="DJ40" s="16"/>
+      <c r="DK40" s="16"/>
+      <c r="DL40" s="16"/>
+      <c r="DM40" s="16"/>
+      <c r="DN40" s="16"/>
+      <c r="DO40" s="16"/>
+      <c r="DP40" s="16"/>
+      <c r="DQ40" s="16"/>
+      <c r="DR40" s="16"/>
+      <c r="DS40" s="16"/>
+      <c r="DT40" s="16"/>
+      <c r="DU40" s="16"/>
+      <c r="DV40" s="16"/>
+      <c r="DW40" s="18"/>
+      <c r="FQ40" s="8"/>
+      <c r="FR40" s="8"/>
+      <c r="FS40" s="8"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" s="1"/>
+      <c r="FW40" s="1"/>
+      <c r="FX40" s="1"/>
+      <c r="FY40" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Golf.xlsx
+++ b/src/Golf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgilson1/Documents/Github/Source/PersonalSite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002626B2-B53C-1F4B-9D9E-E585DEEE624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0D4D5-CDB0-8640-A6B1-A72A95FD9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{5A2DB70E-0041-3946-A9D9-B12F382827A1}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="314">
   <si>
     <t>Hole 1</t>
   </si>
@@ -1133,6 +1133,29 @@
   <si>
     <t>175, 10</t>
   </si>
+  <si>
+    <t>7/6/22
+Connor
+60</t>
+  </si>
+  <si>
+    <t>169, 30</t>
+  </si>
+  <si>
+    <t>S, LB</t>
+  </si>
+  <si>
+    <t>183, 3</t>
+  </si>
+  <si>
+    <t>7/11/22
+Mike
+League
+61</t>
+  </si>
+  <si>
+    <t>3, 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1546,10 +1569,10 @@
   <dimension ref="A1:GZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL27" sqref="BL27"/>
+      <selection pane="bottomRight" activeCell="BL28" sqref="BL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9160,6 +9183,188 @@
         <v>117</v>
       </c>
     </row>
+    <row r="28" spans="1:207" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>127</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <v>120</v>
+      </c>
+      <c r="U28" t="s">
+        <v>112</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH28">
+        <v>97</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK28">
+        <v>4</v>
+      </c>
+      <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO28">
+        <v>142</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR28">
+        <v>3</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>3</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ28">
+        <v>2</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC28">
+        <v>148</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF28">
+        <v>5</v>
+      </c>
+      <c r="BG28">
+        <v>2</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ28">
+        <v>133</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="39" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>54</v>
@@ -9498,10 +9703,10 @@
   <dimension ref="A1:FY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO29" sqref="BO29"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16686,7 +16891,7 @@
         <v>26</v>
       </c>
       <c r="BB21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BC21">
         <v>132</v>
@@ -18001,7 +18206,187 @@
       <c r="FX26" s="1"/>
       <c r="FY26" s="1"/>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:181" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>126</v>
+      </c>
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s">
+        <v>309</v>
+      </c>
+      <c r="U27" t="s">
+        <v>125</v>
+      </c>
+      <c r="V27" t="s">
+        <v>310</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH27">
+        <v>134</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO27">
+        <v>58</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR27">
+        <v>5</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY27">
+        <v>3</v>
+      </c>
+      <c r="AZ27">
+        <v>2</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC27">
+        <v>134</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF27">
+        <v>4</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ27">
+        <v>137</v>
+      </c>
+      <c r="BK27">
+        <v>3</v>
+      </c>
+      <c r="BL27" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="FQ27" s="1"/>
       <c r="FR27" s="1"/>
       <c r="FS27" s="1"/>
@@ -20800,7 +21185,7 @@
   <dimension ref="A1:FY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
